--- a/Resultados/Mercado mundial - Uvas.xlsx
+++ b/Resultados/Mercado mundial - Uvas.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="China, mainland" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Italy" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="France" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="United States of America" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Spain" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China, Continental" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Italia" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Francia" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Estados Unidos de América" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="España" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -227,7 +227,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -301,9 +301,8 @@
     </xf>
     <xf numFmtId="10" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="16"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="16"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -407,13 +406,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -433,21 +432,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Mundial'!$B$12:$B$73</f>
+              <f>'Mundial'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Mundial'!$C$12:$C$73</f>
+              <f>'Mundial'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -489,13 +488,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -515,10 +514,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -571,13 +570,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -597,21 +596,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países exportadores'!$B$12:$B$22</f>
+              <f>'Países exportadores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países exportadores'!$C$12:$C$22</f>
+              <f>'Países exportadores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -653,13 +652,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -679,10 +678,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -735,13 +734,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -761,21 +760,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'China, mainland'!$B$12:$B$73</f>
+              <f>'China, Continental'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'China, mainland'!$C$12:$C$73</f>
+              <f>'China, Continental'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -817,13 +816,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -843,21 +842,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Italy'!$B$12:$B$73</f>
+              <f>'Italia'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Italy'!$C$12:$C$73</f>
+              <f>'Italia'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -899,13 +898,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -925,21 +924,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'France'!$B$12:$B$73</f>
+              <f>'Francia'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'France'!$C$12:$C$73</f>
+              <f>'Francia'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -981,13 +980,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1007,21 +1006,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'United States of America'!$B$12:$B$73</f>
+              <f>'Estados Unidos de América'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'United States of America'!$C$12:$C$73</f>
+              <f>'Estados Unidos de América'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1063,13 +1062,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1089,21 +1088,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Spain'!$B$12:$B$73</f>
+              <f>'España'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Spain'!$C$12:$C$73</f>
+              <f>'España'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1145,7 +1144,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1163,26 +1162,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1203,9 +1202,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1215,7 +1214,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1233,26 +1232,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1273,9 +1272,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1285,7 +1284,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1303,26 +1302,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1343,9 +1342,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1355,7 +1354,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1373,26 +1372,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1413,9 +1412,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1425,7 +1424,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1440,9 +1439,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1462,13 +1461,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1477,7 +1476,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1492,9 +1491,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1514,13 +1513,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1529,7 +1528,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1544,9 +1543,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1566,13 +1565,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1581,7 +1580,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1596,9 +1595,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1618,13 +1617,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1633,7 +1632,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1648,9 +1647,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1670,13 +1669,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2011,8 +2010,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2060,7 +2059,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2139,10 +2138,10 @@
         <v>6595680</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>72486522.15000001</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>10.99</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>4935116.63</v>
@@ -2161,10 +2160,10 @@
         <v>6733525</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>11.6146</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>78207397.67</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>11.6146</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>5148667.9</v>
@@ -2183,10 +2182,10 @@
         <v>6775959</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>11.3291</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>76765761.84</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>11.3291</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>5058332.21</v>
@@ -2205,10 +2204,10 @@
         <v>6873125</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>11.1759</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>76813606.90000001</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>11.1759</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>4806393.92</v>
@@ -2227,10 +2226,10 @@
         <v>6913965</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>11.1505</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>77093823.56999999</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>11.1505</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>4779952.73</v>
@@ -2249,10 +2248,10 @@
         <v>6876319</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>11.649</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>80102051.89</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>11.649</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>4635692.27</v>
@@ -2271,10 +2270,10 @@
         <v>6835575</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>10.7679</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>73604918.83</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>10.7679</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>4705501.33</v>
@@ -2293,10 +2292,10 @@
         <v>6900713</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>10.7988</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>74519542.84</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>10.7988</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>4279040.02</v>
@@ -2315,10 +2314,10 @@
         <v>7108139</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>10.7759</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>76596654.01000001</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>10.7759</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>4288654.2</v>
@@ -2337,10 +2336,10 @@
         <v>7024488</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>10.5213</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>73906888.75</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>10.5213</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>4060672.44</v>
@@ -2359,10 +2358,10 @@
         <v>7027292</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>10.8872</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>76507661.59999999</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>10.8872</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>4042691</v>
@@ -2381,10 +2380,10 @@
         <v>6921380</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>9.964499999999999</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>68968307.16</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>9.964499999999999</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>3983411</v>
@@ -2403,10 +2402,10 @@
         <v>6929423</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>9.982100000000001</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>69170256.62</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>9.982100000000001</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>3858830</v>
@@ -2425,10 +2424,10 @@
         <v>6980117</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>9.5556</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>66699404.71</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>9.5556</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>3706241</v>
@@ -2447,10 +2446,10 @@
         <v>7086161</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>9.5471</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>67652330.84</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>9.5471</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>3725998</v>
@@ -2469,10 +2468,10 @@
         <v>7116163</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>9.356999999999999</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>66586192.82</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>9.356999999999999</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>3831025</v>
@@ -2491,10 +2490,10 @@
         <v>7209817</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>9.179500000000001</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>66182173.63</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>9.179500000000001</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>3549506</v>
@@ -2513,10 +2512,10 @@
         <v>7311740</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>9.1609</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>66982402.66</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>9.1609</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>3372272</v>
@@ -2535,10 +2534,10 @@
         <v>7283259</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>9.195799999999998</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>66975614.89</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>9.195799999999998</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>3221122</v>
@@ -2557,10 +2556,10 @@
         <v>7285772</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>9.224500000000001</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>67207621.15000001</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>9.224500000000001</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>2940577</v>
@@ -2579,10 +2578,10 @@
         <v>7388996</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>8.533100000000001</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>63051140.63</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>8.533100000000001</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>2803895</v>
@@ -2601,10 +2600,10 @@
         <v>7340597</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>8.3324</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>61164447.68</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>8.3324</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>2581951</v>
@@ -2623,10 +2622,10 @@
         <v>7284843</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>8.3546</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>60861631.86</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>8.3546</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>2544193.49</v>
@@ -2645,10 +2644,10 @@
         <v>7254102</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>8.760899999999999</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>63552362.69</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>8.760899999999999</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>2611020.81</v>
@@ -2667,10 +2666,10 @@
         <v>7161974</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>8.444100000000001</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>60476117.37</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>8.444100000000001</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>2339008.54</v>
@@ -2689,10 +2688,10 @@
         <v>7115073</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>7.9315</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>56432962.87</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>7.9315</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>2178603.27</v>
@@ -2711,10 +2710,10 @@
         <v>7182640</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>8.069600000000001</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>57961134.06</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>8.069600000000001</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>2162310.15</v>
@@ -2733,10 +2732,10 @@
         <v>7243349</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>8.095000000000001</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>58634763.94</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>8.095000000000001</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>2112135.06</v>
@@ -2755,10 +2754,10 @@
         <v>7322841</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>7.5629</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>55381603.7</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>7.5629</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>1844566.09</v>
@@ -2777,10 +2776,10 @@
         <v>7425871</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>7.2831</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>54083444.56</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>7.2831</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>1978377.16</v>
@@ -2799,10 +2798,10 @@
         <v>7506598</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>7.365699999999999</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>55291005.99</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>7.365699999999999</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>1793644</v>
@@ -2821,10 +2820,10 @@
         <v>7747202</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>60273349.11</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>7.78</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>1786736</v>
@@ -2843,10 +2842,10 @@
         <v>7828974</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>7.1624</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>56073901.6</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>7.1624</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>1669716</v>
@@ -2865,10 +2864,10 @@
         <v>7971499</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>7.495</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>59746557</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>7.495</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>1623719</v>
@@ -2887,10 +2886,10 @@
         <v>8185142</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>7.186100000000001</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>58819583</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>7.186100000000001</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>1436956</v>
@@ -2909,10 +2908,10 @@
         <v>8249828</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>7.0458</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>58126545</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>7.0458</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>1486478</v>
@@ -2931,10 +2930,10 @@
         <v>8368200</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>7.6442</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>63968578</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>7.6442</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>1479586</v>
@@ -2953,10 +2952,10 @@
         <v>8475117</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>7.557600000000001</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>64051617</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>7.557600000000001</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>1393920</v>
@@ -2975,10 +2974,10 @@
         <v>8623126</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>6.8034</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>58666690</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>6.8034</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>1390956</v>
@@ -2997,10 +2996,10 @@
         <v>8738754</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>7.3822</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>64511650</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>7.3822</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>1181038</v>
@@ -3019,10 +3018,10 @@
         <v>8864528</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>7.587800000000001</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>67262266</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>7.587800000000001</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>1262277</v>
@@ -3041,10 +3040,10 @@
         <v>9099047</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>7.9748</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>72563177</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>7.9748</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>1101561</v>
@@ -3063,10 +3062,10 @@
         <v>9225893</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>6.6839</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>61664595</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>6.6839</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>1116672</v>
@@ -3085,10 +3084,10 @@
         <v>9217058</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>7.2142</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>66493476</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>7.2142</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>1028061</v>
@@ -3107,10 +3106,10 @@
         <v>9201885</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>7.5225</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>69221428</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>7.5225</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>1056534</v>
@@ -3129,10 +3128,10 @@
         <v>9285218</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>6.1773</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>57357716</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>6.1773</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>1001161</v>
@@ -3151,10 +3150,10 @@
         <v>9275292</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>5.7315</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>53161250</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>5.7315</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>914644</v>
@@ -3173,10 +3172,10 @@
         <v>9268553</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>6.435</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>59642898</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>6.435</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>874277</v>
@@ -3195,10 +3194,10 @@
         <v>9157909</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>6.373</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>58363332</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>6.373</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>925646</v>
@@ -3217,10 +3216,10 @@
         <v>9085223</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>6.7185</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>61039152</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>6.7185</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>917677</v>
@@ -3239,10 +3238,10 @@
         <v>9052324</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>6.9798</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>63183851</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>6.9798</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>892579</v>
@@ -3261,10 +3260,10 @@
         <v>9061350</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>5.5286</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>50096650</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>5.5286</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>763537</v>
@@ -3283,10 +3282,10 @@
         <v>9046710</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>6.0024</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>54302266</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>6.0024</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>939855</v>
@@ -3305,10 +3304,10 @@
         <v>9089699</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>6.1544</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>55941538</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>6.1544</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>859796</v>
@@ -3327,10 +3326,10 @@
         <v>9181158</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>5.7692</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>52968326</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>5.7692</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>930679</v>
@@ -3349,10 +3348,10 @@
         <v>9392240</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>5.897600000000001</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>55392051</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>5.897600000000001</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>819396</v>
@@ -3371,10 +3370,10 @@
         <v>9474774</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>5.6124</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>53176109</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>5.6124</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>802093</v>
@@ -3392,10 +3391,10 @@
         <v>9488955</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>5.4595</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>51804908</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>5.4595</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>791219</v>
@@ -3413,10 +3412,10 @@
         <v>9586778</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>5.7453</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>55078912</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>5.7453</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>966165</v>
@@ -3434,10 +3433,10 @@
         <v>9619200</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>5.442699999999999</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>52354751</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>5.442699999999999</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>734470</v>
@@ -3455,10 +3454,10 @@
         <v>9491889</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>5.0605</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>48033929</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>5.0605</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>719799</v>
@@ -3476,10 +3475,10 @@
         <v>9382918</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>5.6958</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>53443674</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>5.6958</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>750462</v>
@@ -3497,10 +3496,10 @@
         <v>9333213</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>4.605899999999999</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>42987826</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>4.605899999999999</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>609851</v>
@@ -3787,8 +3786,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3883,7 +3882,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -3897,7 +3896,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Italia</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -3911,7 +3910,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Francia</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -3925,7 +3924,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -3939,7 +3938,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3995,7 +3994,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Sudáfrica</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4009,7 +4008,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Egipto</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4023,43 +4022,35 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Otros</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>481128.87</v>
+        <v>22569482.02</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.006637494195188118</v>
+        <v>0.3113610827306053</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C23" s="29" t="n">
-        <v>22088353.15000001</v>
+        <v>72486522.15000001</v>
       </c>
       <c r="D23" s="31" t="n">
-        <v>0.3047235885354172</v>
+        <v>1</v>
       </c>
       <c r="E23" s="29" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="29" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C24" s="29" t="n">
-        <v>72486522.15000001</v>
-      </c>
-      <c r="D24" s="31" t="n">
-        <v>1</v>
-      </c>
+      <c r="B24" s="29" t="n"/>
+      <c r="C24" s="29" t="n"/>
+      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
       <c r="G24" s="32" t="n"/>
     </row>
@@ -4070,41 +4061,40 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="29" t="n"/>
+      <c r="B26" s="12" t="n"/>
       <c r="C26" s="33" t="n"/>
-      <c r="D26" s="31" t="n"/>
-      <c r="E26" s="29" t="n"/>
+      <c r="D26" s="34" t="n"/>
     </row>
     <row r="27">
       <c r="C27" s="17" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
-      <c r="C28" s="35" t="n"/>
+      <c r="C28" s="33" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
-      <c r="C29" s="35" t="n"/>
+      <c r="C29" s="33" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
-      <c r="C30" s="35" t="n"/>
+      <c r="C30" s="33" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
-      <c r="C31" s="35" t="n"/>
+      <c r="C31" s="33" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
-      <c r="C32" s="35" t="n"/>
+      <c r="C32" s="33" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
-      <c r="C33" s="35" t="n"/>
+      <c r="C33" s="33" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
-      <c r="C34" s="35" t="n"/>
+      <c r="C34" s="33" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
   </sheetData>
@@ -4126,7 +4116,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4225,7 +4215,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4253,7 +4243,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4267,7 +4257,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Italia</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4281,7 +4271,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Netherlands (Kingdom of the)</t>
+          <t>Países Bajos (Reino de los)</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4295,7 +4285,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Sudáfrica</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4323,7 +4313,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4337,7 +4327,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4351,7 +4341,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Egipto</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4408,124 +4398,124 @@
     <row r="26">
       <c r="B26" s="13" t="n"/>
       <c r="C26" s="17" t="n"/>
-      <c r="D26" s="36" t="n"/>
+      <c r="D26" s="35" t="n"/>
       <c r="E26" s="25" t="n"/>
       <c r="F26" s="25" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="13" t="n"/>
       <c r="C27" s="17" t="n"/>
-      <c r="D27" s="36" t="n"/>
+      <c r="D27" s="35" t="n"/>
       <c r="E27" s="25" t="n"/>
       <c r="F27" s="25" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="13" t="n"/>
       <c r="C28" s="17" t="n"/>
-      <c r="D28" s="36" t="n"/>
+      <c r="D28" s="35" t="n"/>
       <c r="E28" s="25" t="n"/>
       <c r="F28" s="25" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="13" t="n"/>
       <c r="C29" s="17" t="n"/>
-      <c r="D29" s="36" t="n"/>
+      <c r="D29" s="35" t="n"/>
       <c r="E29" s="25" t="n"/>
       <c r="F29" s="25" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="13" t="n"/>
       <c r="C30" s="17" t="n"/>
-      <c r="D30" s="36" t="n"/>
+      <c r="D30" s="35" t="n"/>
       <c r="E30" s="25" t="n"/>
       <c r="F30" s="25" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="13" t="n"/>
       <c r="C31" s="17" t="n"/>
-      <c r="D31" s="36" t="n"/>
+      <c r="D31" s="35" t="n"/>
       <c r="E31" s="25" t="n"/>
       <c r="F31" s="25" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="13" t="n"/>
       <c r="C32" s="17" t="n"/>
-      <c r="D32" s="36" t="n"/>
+      <c r="D32" s="35" t="n"/>
       <c r="E32" s="25" t="n"/>
       <c r="F32" s="25" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="13" t="n"/>
       <c r="C33" s="17" t="n"/>
-      <c r="D33" s="36" t="n"/>
+      <c r="D33" s="35" t="n"/>
       <c r="E33" s="25" t="n"/>
       <c r="F33" s="25" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="13" t="n"/>
       <c r="C34" s="17" t="n"/>
-      <c r="D34" s="36" t="n"/>
+      <c r="D34" s="35" t="n"/>
       <c r="E34" s="25" t="n"/>
       <c r="F34" s="25" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="13" t="n"/>
       <c r="C35" s="17" t="n"/>
-      <c r="D35" s="36" t="n"/>
+      <c r="D35" s="35" t="n"/>
       <c r="E35" s="25" t="n"/>
       <c r="F35" s="25" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="13" t="n"/>
       <c r="C36" s="17" t="n"/>
-      <c r="D36" s="36" t="n"/>
+      <c r="D36" s="35" t="n"/>
       <c r="E36" s="25" t="n"/>
       <c r="F36" s="25" t="n"/>
     </row>
     <row r="37">
       <c r="B37" s="13" t="n"/>
       <c r="C37" s="17" t="n"/>
-      <c r="D37" s="37" t="n"/>
+      <c r="D37" s="36" t="n"/>
       <c r="E37" s="25" t="n"/>
       <c r="F37" s="25" t="n"/>
     </row>
     <row r="38">
-      <c r="D38" s="37" t="n"/>
+      <c r="D38" s="36" t="n"/>
       <c r="E38" s="25" t="n"/>
       <c r="F38" s="25" t="n"/>
     </row>
     <row r="39">
-      <c r="D39" s="37" t="n"/>
+      <c r="D39" s="36" t="n"/>
       <c r="E39" s="25" t="n"/>
       <c r="F39" s="25" t="n"/>
     </row>
     <row r="40">
-      <c r="D40" s="37" t="n"/>
+      <c r="D40" s="36" t="n"/>
       <c r="E40" s="25" t="n"/>
       <c r="F40" s="25" t="n"/>
     </row>
     <row r="41">
-      <c r="D41" s="37" t="n"/>
+      <c r="D41" s="36" t="n"/>
       <c r="E41" s="25" t="n"/>
       <c r="F41" s="25" t="n"/>
     </row>
     <row r="42">
-      <c r="D42" s="37" t="n"/>
+      <c r="D42" s="36" t="n"/>
       <c r="E42" s="25" t="n"/>
       <c r="F42" s="25" t="n"/>
     </row>
     <row r="43">
-      <c r="D43" s="37" t="n"/>
+      <c r="D43" s="36" t="n"/>
       <c r="E43" s="25" t="n"/>
       <c r="F43" s="25" t="n"/>
     </row>
     <row r="44">
-      <c r="D44" s="37" t="n"/>
+      <c r="D44" s="36" t="n"/>
       <c r="E44" s="25" t="n"/>
       <c r="F44" s="25" t="n"/>
     </row>
     <row r="45">
-      <c r="D45" s="37" t="n"/>
+      <c r="D45" s="36" t="n"/>
       <c r="E45" s="25" t="n"/>
       <c r="F45" s="25" t="n"/>
     </row>
@@ -4547,8 +4537,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4643,7 +4633,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4657,7 +4647,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Netherlands (Kingdom of the)</t>
+          <t>Países Bajos (Reino de los)</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4671,7 +4661,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Alemania</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4685,7 +4675,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Russian Federation</t>
+          <t>Federación de Rusia</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4699,7 +4689,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>United Kingdom of Great Britain and Northern Ireland</t>
+          <t>Reino Unido de Gran Bretaña e Irlanda del Norte</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4713,7 +4703,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Canadá</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4727,7 +4717,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4741,7 +4731,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Pakistán</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4769,7 +4759,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Tailandia</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4783,43 +4773,35 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Otros</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>125195.07</v>
+        <v>2008325.54</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.02536820897786969</v>
+        <v>0.4069459124413844</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C23" s="29" t="n">
-        <v>1883130.47</v>
+        <v>4935116.63</v>
       </c>
       <c r="D23" s="31" t="n">
-        <v>0.3815777034635148</v>
+        <v>1</v>
       </c>
       <c r="E23" s="29" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="29" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C24" s="29" t="n">
-        <v>4935116.63</v>
-      </c>
-      <c r="D24" s="31" t="n">
-        <v>1</v>
-      </c>
+      <c r="B24" s="29" t="n"/>
+      <c r="C24" s="29" t="n"/>
+      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
     </row>
     <row r="25">
@@ -4829,60 +4811,59 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="29" t="n"/>
-      <c r="C26" s="33" t="n"/>
-      <c r="D26" s="31" t="n"/>
-      <c r="E26" s="29" t="n"/>
+      <c r="B26" s="15" t="n"/>
+      <c r="C26" s="37" t="n"/>
+      <c r="D26" s="34" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="15" t="n"/>
-      <c r="C27" s="38" t="n"/>
+      <c r="C27" s="37" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="15" t="n"/>
-      <c r="C28" s="38" t="n"/>
+      <c r="C28" s="37" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="15" t="n"/>
-      <c r="C29" s="38" t="n"/>
+      <c r="C29" s="37" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="15" t="n"/>
-      <c r="C30" s="38" t="n"/>
+      <c r="C30" s="37" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="15" t="n"/>
-      <c r="C31" s="38" t="n"/>
+      <c r="C31" s="37" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="15" t="n"/>
-      <c r="C32" s="38" t="n"/>
+      <c r="C32" s="37" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="15" t="n"/>
-      <c r="C33" s="38" t="n"/>
+      <c r="C33" s="37" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="15" t="n"/>
-      <c r="C34" s="38" t="n"/>
+      <c r="C34" s="37" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="15" t="n"/>
-      <c r="C35" s="38" t="n"/>
-      <c r="D35" s="37" t="n"/>
+      <c r="C35" s="37" t="n"/>
+      <c r="D35" s="36" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="15" t="n"/>
-      <c r="C36" s="38" t="n"/>
-      <c r="D36" s="37" t="n"/>
+      <c r="C36" s="37" t="n"/>
+      <c r="D36" s="36" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4951,7 +4932,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5030,10 +5011,10 @@
         <v>607030</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>22.2394</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>13500000</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>22.2394</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>166704.51</v>
@@ -5052,10 +5033,10 @@
         <v>705110</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>21.8092</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>15377900</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>21.8092</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>180596.79</v>
@@ -5074,10 +5055,10 @@
         <v>701550</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>21.3784</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>14998000</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>21.3784</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>194602.74</v>
@@ -5096,10 +5077,10 @@
         <v>710717</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>20.1404</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>14314100</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>20.1404</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>250499.1</v>
@@ -5118,10 +5099,10 @@
         <v>743192</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>19.1006</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>14195400</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>19.1006</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>252293.67</v>
@@ -5140,10 +5121,10 @@
         <v>725100</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>18.8482</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>13666800</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>18.8482</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>231666.88</v>
@@ -5162,10 +5143,10 @@
         <v>706550</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>18.5166</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>13082900</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>18.5166</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>233912.37</v>
@@ -5184,10 +5165,10 @@
         <v>721918</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>17.4942</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>12629400</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>17.4942</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>252396.11</v>
@@ -5206,10 +5187,10 @@
         <v>799200</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>16.4716</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>13164100</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>16.4716</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>215756.48</v>
@@ -5228,10 +5209,10 @@
         <v>767200</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>15.2907</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>11731000</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>15.2907</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>211019.39</v>
@@ -5250,10 +5231,10 @@
         <v>646570</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>16.8344</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>10884600</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>16.8344</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>185228</v>
@@ -5272,10 +5253,10 @@
         <v>612750</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>16.3295</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>10005900</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>16.3295</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>146052</v>
@@ -5294,10 +5275,10 @@
         <v>550280</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>15.5864</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>8576900</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>15.5864</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>122909</v>
@@ -5316,10 +5297,10 @@
         <v>513170</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>15.853</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>8135300</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>15.853</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>81744</v>
@@ -5338,10 +5319,10 @@
         <v>465520</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>16.4307</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>7648800</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>16.4307</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>89766</v>
@@ -5360,10 +5341,10 @@
         <v>433070</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>16.123</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>6982400</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>16.123</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>51614</v>
@@ -5382,10 +5363,10 @@
         <v>415180</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>15.5109</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>6439800</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>15.5109</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>42775</v>
@@ -5404,10 +5385,10 @@
         <v>418730</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>14.9758</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>6270800</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>14.9758</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>46021</v>
@@ -5426,10 +5407,10 @@
         <v>407920</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>14.2047</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>5794400</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>14.2047</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>57490</v>
@@ -5448,10 +5429,10 @@
         <v>413500</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>13.725</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>5675300</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>13.725</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>58887</v>
@@ -5470,10 +5451,10 @@
         <v>420830</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>12.2993</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>5175900</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>12.2993</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>53412</v>
@@ -5492,10 +5473,10 @@
         <v>392330</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>11.4177</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>4479500</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>11.4177</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>54877</v>
@@ -5514,10 +5495,10 @@
         <v>334380</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>11.0054</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>3680000</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>11.0054</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>48587</v>
@@ -5536,10 +5517,10 @@
         <v>282970</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>11.5973</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>3281700</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>11.5973</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>52407.96</v>
@@ -5558,10 +5539,10 @@
         <v>223210</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>12.1325</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>2708100</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>12.1325</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>44156</v>
@@ -5580,10 +5561,10 @@
         <v>177960</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>13.2513</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>2358200</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>13.2513</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>7023</v>
@@ -5602,10 +5583,10 @@
         <v>158230</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>12.8471</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>2032800</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>12.8471</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>4795</v>
@@ -5624,10 +5605,10 @@
         <v>153490</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>12.2686</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>1883100</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>12.2686</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>6299</v>
@@ -5646,10 +5627,10 @@
         <v>152500</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>11.421</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>1741700</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>11.421</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>3669</v>
@@ -5668,10 +5649,10 @@
         <v>148900</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>10.2223</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>1522100</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>10.2223</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>678</v>
@@ -5690,10 +5671,10 @@
         <v>134000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>10.1104</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>1354800</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>10.1104</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>535</v>
@@ -5712,10 +5693,10 @@
         <v>139000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>8.094199999999999</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>1125100</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>8.094199999999999</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>20</v>
@@ -5734,10 +5715,10 @@
         <v>113933</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>8.0389</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>915900</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>8.0389</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>5</v>
@@ -5756,10 +5737,10 @@
         <v>122600</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>7.0027</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>858525</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>7.0027</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>6</v>
@@ -5778,10 +5759,10 @@
         <v>138667</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>6.304600000000001</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>874245</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>6.304600000000001</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>16</v>
@@ -5800,10 +5781,10 @@
         <v>146600</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>5.404100000000001</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>792247</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>5.404100000000001</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>20</v>
@@ -5822,10 +5803,10 @@
         <v>143000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>4.4825</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>641000</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>4.4825</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>18</v>
@@ -5844,10 +5825,10 @@
         <v>115000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>3.8399</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>441590</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>3.8399</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>11</v>
@@ -5866,10 +5847,10 @@
         <v>87000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>4.154100000000001</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>361410</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>4.154100000000001</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -5888,10 +5869,10 @@
         <v>64000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>4.5938</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>294000</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>4.5938</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -5910,10 +5891,10 @@
         <v>58400</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>4.231199999999999</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>247100</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>4.231199999999999</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -5932,10 +5913,10 @@
         <v>46700</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>3.9829</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>186000</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>3.9829</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -5954,10 +5935,10 @@
         <v>37000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>4</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>148000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>4</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -5976,10 +5957,10 @@
         <v>32000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>3.4375</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>110000</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>3.4375</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -5998,10 +5979,10 @@
         <v>30700</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>4.0945</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>125700</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>4.0945</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -6020,10 +6001,10 @@
         <v>25000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>104000</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>4.16</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -6042,10 +6023,10 @@
         <v>20000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>91000</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>4.55</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -6064,10 +6045,10 @@
         <v>20000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>117000</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>5.85</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -6086,10 +6067,10 @@
         <v>19000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>6.4737</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>123000</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>6.4737</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -6108,10 +6089,10 @@
         <v>19000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>5.4737</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>104000</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>5.4737</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -6130,10 +6111,10 @@
         <v>19000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>6.0526</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>115000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>6.0526</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -6152,10 +6133,10 @@
         <v>18000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>5.6111</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>101000</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>5.6111</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -6174,10 +6155,10 @@
         <v>18000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>5.7778</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>104000</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>5.7778</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -6196,10 +6177,10 @@
         <v>18000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>4.7222</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>85000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>4.7222</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -6218,10 +6199,10 @@
         <v>18000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>5.2778</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>95000</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>5.2778</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -6240,10 +6221,10 @@
         <v>17000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>5.8824</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>100000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>5.8824</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -6262,10 +6243,10 @@
         <v>17000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>5.2941</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>90000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>5.2941</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -6283,10 +6264,10 @@
         <v>17000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>5.764699999999999</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>98000</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>5.764699999999999</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -6304,10 +6285,10 @@
         <v>15000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>6.6667</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>100000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>6.6667</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -6325,10 +6306,10 @@
         <v>13000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>7.6923</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>100000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>7.6923</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -6346,10 +6327,10 @@
         <v>12000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>7.0833</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>85000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>7.0833</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -6367,10 +6348,10 @@
         <v>12000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>7</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>84000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>7</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -6388,10 +6369,10 @@
         <v>10000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>7</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>70000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>7</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -6727,7 +6708,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6806,10 +6787,10 @@
         <v>713350</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>9.348600000000001</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>6668830</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>9.348600000000001</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>20705.9</v>
@@ -6828,10 +6809,10 @@
         <v>709890</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>11.8863</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>8437970</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>11.8863</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>18571.06</v>
@@ -6850,10 +6831,10 @@
         <v>702670</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>11.5978</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>8149400</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>11.5978</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>19506.82</v>
@@ -6872,10 +6853,10 @@
         <v>703900</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>11.6811</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>8222360</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>11.6811</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>18985.26</v>
@@ -6894,10 +6875,10 @@
         <v>697910</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>11.3197</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>7900120</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>11.3197</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>21679.86</v>
@@ -6916,10 +6897,10 @@
         <v>675820</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>12.5975</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>8513640</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>12.5975</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>19641.08</v>
@@ -6938,10 +6919,10 @@
         <v>670085</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>10.6998</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>7169745</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>10.6998</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>23917.77</v>
@@ -6960,10 +6941,10 @@
         <v>668087</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>12.2767</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>8201913.6</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>12.2767</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>23014.86</v>
@@ -6982,10 +6963,10 @@
         <v>672858</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>11.7633</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>7915007.5</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>11.7633</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>24414.72</v>
@@ -7004,10 +6985,10 @@
         <v>682183</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>10.1597</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>6930794.4</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>10.1597</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>21723.2</v>
@@ -7026,10 +7007,10 @@
         <v>702106</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>11.4091</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>8010364.2</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>11.4091</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>19097</v>
@@ -7048,10 +7029,10 @@
         <v>686644</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>10.0752</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>6918043.9</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>10.0752</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>22967</v>
@@ -7070,10 +7051,10 @@
         <v>725353</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>10.2638</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>7444881</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>10.2638</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>23735</v>
@@ -7092,10 +7073,10 @@
         <v>777500</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>10.0165</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>7787800</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>10.0165</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>23056</v>
@@ -7114,10 +7095,10 @@
         <v>801900</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>10.2787</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>8242500</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>10.2787</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>23355</v>
@@ -7136,10 +7117,10 @@
         <v>788100</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>9.8887</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>7793301</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>9.8887</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>25240</v>
@@ -7158,10 +7139,10 @@
         <v>782000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>9.4534</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>7392543</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>9.4534</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>23564</v>
@@ -7180,10 +7161,10 @@
         <v>786000</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>10.5938</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>8326688</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>10.5938</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>21245</v>
@@ -7202,10 +7183,10 @@
         <v>793000</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>10.7864</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>8553576</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>10.7864</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>19899</v>
@@ -7224,10 +7205,10 @@
         <v>787000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>11.0444</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>8691970</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>11.0444</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>20003</v>
@@ -7246,10 +7227,10 @@
         <v>835546</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>8.9557</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>7482936</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>8.9557</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>16608</v>
@@ -7268,10 +7249,10 @@
         <v>836330</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>8.8409</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>7393880</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>8.8409</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>14430</v>
@@ -7290,10 +7271,10 @@
         <v>859859</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>10.4533</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>8988400</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>10.4533</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>12453</v>
@@ -7312,10 +7293,10 @@
         <v>872730</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>10.1629</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>8869500</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>10.1629</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>14263</v>
@@ -7334,10 +7315,10 @@
         <v>877194</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>10.6726</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>9361924</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>10.6726</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>12379</v>
@@ -7356,10 +7337,10 @@
         <v>874390</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>10.5866</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>9256801</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>10.5866</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>8131</v>
@@ -7378,10 +7359,10 @@
         <v>879526</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>9.161200000000001</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>8057540</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>9.161200000000001</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>12389</v>
@@ -7400,10 +7381,10 @@
         <v>896260</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>9464542</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>10.56</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>10975</v>
@@ -7422,10 +7403,10 @@
         <v>899105</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>9.395700000000001</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>8447720</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>9.395700000000001</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>7352</v>
@@ -7444,10 +7425,10 @@
         <v>925662</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>10.0703</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>9321668</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>10.0703</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>10616</v>
@@ -7466,10 +7447,10 @@
         <v>948262</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>10.2822</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>9750240</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>10.2822</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>9954</v>
@@ -7488,10 +7469,10 @@
         <v>975411</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>10.8925</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>10624696</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>10.8925</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>11477</v>
@@ -7510,10 +7491,10 @@
         <v>992867</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>9.4649</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>9397410</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>9.4649</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>11369</v>
@@ -7532,10 +7513,10 @@
         <v>1024282</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>8.238</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>8438000</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>8.238</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>9579</v>
@@ -7554,10 +7535,10 @@
         <v>1037078</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>9.1113</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>9449110</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>9.1113</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>6796</v>
@@ -7576,10 +7557,10 @@
         <v>1046312</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>9.122999999999999</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>9545480</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>9.122999999999999</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>10018</v>
@@ -7598,10 +7579,10 @@
         <v>1055685</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>10.8979</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>11504770</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>10.8979</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>8119</v>
@@ -7620,10 +7601,10 @@
         <v>1060432</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>10.8747</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>11531900</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>10.8747</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>4844</v>
@@ -7642,10 +7623,10 @@
         <v>1071773</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>8.9419</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>9583700</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>8.9419</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>8884</v>
@@ -7664,10 +7645,10 @@
         <v>1099767</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>9.7759</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>10751200</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>9.7759</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>4324</v>
@@ -7686,10 +7667,10 @@
         <v>1106839</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>11.7223</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>12974700</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>11.7223</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>4060</v>
@@ -7708,10 +7689,10 @@
         <v>1322600</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>8.6561</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>11448600</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>8.6561</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>3207</v>
@@ -7730,10 +7711,10 @@
         <v>1335000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>8.1693</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>10906000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>8.1693</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>3274</v>
@@ -7752,10 +7733,10 @@
         <v>1349000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>9.818</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>13244500</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>9.818</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>1941</v>
@@ -7774,10 +7755,10 @@
         <v>1297700</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>10.0477</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>13038900</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>10.0477</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>2319</v>
@@ -7796,10 +7777,10 @@
         <v>1349500</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>8.2866</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>11182700</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>8.2866</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>2020</v>
@@ -7818,10 +7799,10 @@
         <v>1347400</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>7.5061</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>10113700</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>7.5061</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>1973</v>
@@ -7840,10 +7821,10 @@
         <v>1344500</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>7.844399999999999</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>10546800</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>7.844399999999999</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>2898</v>
@@ -7862,10 +7843,10 @@
         <v>1328000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>8.2203</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>10916600</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>8.2203</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>3177</v>
@@ -7884,10 +7865,10 @@
         <v>1320000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>8.946200000000001</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>11809000</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>8.946200000000001</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>2962</v>
@@ -7906,10 +7887,10 @@
         <v>1302500</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>9.091700000000001</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>11842000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>9.091700000000001</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>3110</v>
@@ -7928,10 +7909,10 @@
         <v>1292300</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>7.319</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>9458400</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>7.319</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>3270</v>
@@ -7950,10 +7931,10 @@
         <v>1275500</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>7.860399999999999</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>10026000</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>7.860399999999999</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>5125</v>
@@ -7972,10 +7953,10 @@
         <v>1330800</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>8.058300000000001</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>10724000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>8.058300000000001</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>4252</v>
@@ -7994,10 +7975,10 @@
         <v>1326900</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>8.412799999999999</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>11163000</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>8.412799999999999</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>3463</v>
@@ -8016,10 +7997,10 @@
         <v>1392800</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>7.4095</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>10320000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>7.4095</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>4148</v>
@@ -8038,10 +8019,10 @@
         <v>1482900</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>7.884600000000001</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>11692000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>7.884600000000001</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>2276</v>
@@ -8059,10 +8040,10 @@
         <v>1535300</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>6.6111</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>10150000</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>6.6111</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>1772</v>
@@ -8080,10 +8061,10 @@
         <v>1555000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>6.865</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>10675000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>6.865</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>2174</v>
@@ -8101,10 +8082,10 @@
         <v>1650200</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>6.276800000000001</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>10358000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>6.276800000000001</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>928</v>
@@ -8122,10 +8103,10 @@
         <v>1663400</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>5.229</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>8698000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>5.229</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>547</v>
@@ -8143,10 +8124,10 @@
         <v>1685000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>6.508</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>10966000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>6.508</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>172</v>
@@ -8164,10 +8145,10 @@
         <v>1690700</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>5.008</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>8467000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>5.008</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>240</v>
@@ -8503,7 +8484,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8582,10 +8563,10 @@
         <v>753340</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>8.237</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>6205260</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>8.237</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>126285.68</v>
@@ -8604,10 +8585,10 @@
         <v>757550</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>8.184200000000001</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>6199950</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>8.184200000000001</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>147080.63</v>
@@ -8626,10 +8607,10 @@
         <v>757830</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>6.6949</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>5073590</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>6.6949</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>134070.12</v>
@@ -8648,10 +8629,10 @@
         <v>759590</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>7.7119</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>5857870</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>7.7119</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>131477.86</v>
@@ -8670,10 +8651,10 @@
         <v>755470</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>7.2665</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>5489650</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>7.2665</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>116502.42</v>
@@ -8692,10 +8673,10 @@
         <v>750620</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>8.350200000000001</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>6267790</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>8.350200000000001</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>128496.99</v>
@@ -8714,10 +8695,10 @@
         <v>750463</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>6.6773</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>5011053.7</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>6.6773</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>146248.43</v>
@@ -8736,10 +8717,10 @@
         <v>751366</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>8.0221</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>6027505.7</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>8.0221</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>143859.11</v>
@@ -8758,10 +8739,10 @@
         <v>752101</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>8.321200000000001</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>6258363</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>8.321200000000001</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>144504.42</v>
@@ -8780,10 +8761,10 @@
         <v>757339</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>8.193</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>6204909</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>8.193</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>140853.5</v>
@@ -8802,10 +8783,10 @@
         <v>760546</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>7.2853</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>5540835</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>7.2853</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>144782</v>
@@ -8824,10 +8805,10 @@
         <v>760804</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>7.0775</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>5384561</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>7.0775</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>148842</v>
@@ -8846,10 +8827,10 @@
         <v>764164</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>8.6905</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>6640980</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>8.6905</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>156116</v>
@@ -8868,10 +8849,10 @@
         <v>771530</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>7.6388</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>5893530</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>7.6388</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>130897</v>
@@ -8890,10 +8871,10 @@
         <v>796128</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>7.664</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>6101525</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>7.664</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>150425</v>
@@ -8912,10 +8893,10 @@
         <v>814697</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>7.388199999999999</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>6019149</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>7.388199999999999</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>163068</v>
@@ -8934,10 +8915,10 @@
         <v>828885</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>7.2616</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>6019056</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>7.2616</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>143308</v>
@@ -8956,10 +8937,10 @@
         <v>885165</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>7.6561</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>6776880</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>7.6561</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>141557</v>
@@ -8978,10 +8959,10 @@
         <v>854824</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>7.9434</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>6790215</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>7.9434</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>154997</v>
@@ -9000,10 +8981,10 @@
         <v>851970</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>8.879299999999999</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>7564902</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>8.879299999999999</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>150036</v>
@@ -9022,10 +9003,10 @@
         <v>851208</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>7.4096</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>6307112</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>7.4096</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>154159</v>
@@ -9044,10 +9025,10 @@
         <v>861575</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>7.9546</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>6853482</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>7.9546</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>135450</v>
@@ -9066,10 +9047,10 @@
         <v>861343</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>8.388500000000001</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>7225357</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>8.388500000000001</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>163979</v>
@@ -9088,10 +9069,10 @@
         <v>860979</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>9.016</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>7762582</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>9.016</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>160887</v>
@@ -9110,10 +9091,10 @@
         <v>863355</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>9.3133</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>8040710</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>9.3133</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>142356</v>
@@ -9132,10 +9113,10 @@
         <v>862677</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>8.0205</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>6919069</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>8.0205</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>156058</v>
@@ -9154,10 +9135,10 @@
         <v>878148</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>8.188699999999999</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>7190900</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>8.188699999999999</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>148162</v>
@@ -9176,10 +9157,10 @@
         <v>886690</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>8.702500000000001</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>7716400</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>8.702500000000001</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>135094</v>
@@ -9198,10 +9179,10 @@
         <v>894800</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>8.0609</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>7212900</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>8.0609</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>122578</v>
@@ -9220,10 +9201,10 @@
         <v>898800</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>7.727399999999999</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>6945400</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>7.727399999999999</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>168348</v>
@@ -9242,10 +9223,10 @@
         <v>902000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>7.3803</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>6657000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>7.3803</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>158520</v>
@@ -9264,10 +9245,10 @@
         <v>907300</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>8.8117</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>7994900</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>8.8117</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>159483</v>
@@ -9286,10 +9267,10 @@
         <v>901829</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>6.0605</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>5465540</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>6.0605</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>163673</v>
@@ -9308,10 +9289,10 @@
         <v>907778</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>9.0389</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>8205280</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>9.0389</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>127993</v>
@@ -9330,10 +9311,10 @@
         <v>924300</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>8.300799999999999</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>7672400</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>8.300799999999999</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>123473</v>
@@ -9352,10 +9333,10 @@
         <v>945109</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>7.6378</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>7218542</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>7.6378</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>147158</v>
@@ -9374,10 +9355,10 @@
         <v>989600</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>9.282500000000001</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>9186000</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>9.282500000000001</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>139480</v>
@@ -9396,10 +9377,10 @@
         <v>1002442</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>9.4514</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>9474500</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>9.4514</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>136948</v>
@@ -9418,10 +9399,10 @@
         <v>1020400</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>8.790700000000001</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>8970000</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>8.790700000000001</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>143222</v>
@@ -9440,10 +9421,10 @@
         <v>1032200</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>9.0428</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>9334000</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>9.0428</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>104072</v>
@@ -9462,10 +9443,10 @@
         <v>1049700</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>9.4598</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>9930000</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>9.4598</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>140718</v>
@@ -9484,10 +9465,10 @@
         <v>1069200</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>10.7931</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>11540000</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>10.7931</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>99220</v>
@@ -9506,10 +9487,10 @@
         <v>1083000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>7.9501</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>8610000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>7.9501</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>105013</v>
@@ -9528,10 +9509,10 @@
         <v>1113800</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>9.266500000000001</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>10321000</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>9.266500000000001</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>91105</v>
@@ -9550,10 +9531,10 @@
         <v>1166000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>10.7033</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>12480000</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>10.7033</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>88425</v>
@@ -9572,10 +9553,10 @@
         <v>1176600</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>7.4035</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>8711000</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>7.4035</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>93786</v>
@@ -9594,10 +9575,10 @@
         <v>1203900</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>6.4565</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>7773000</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>6.4565</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>84470</v>
@@ -9616,10 +9597,10 @@
         <v>1226400</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>9.0509</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>11100000</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>9.0509</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>37572</v>
@@ -9638,10 +9619,10 @@
         <v>1194100</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>8.374499999999999</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>10000000</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>8.374499999999999</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>51084</v>
@@ -9660,10 +9641,10 @@
         <v>1218600</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>9.456799999999999</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>11524000</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>9.456799999999999</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>22704</v>
@@ -9682,10 +9663,10 @@
         <v>1220600</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>10.2766</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>12543626</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>10.2766</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>20519</v>
@@ -9704,10 +9685,10 @@
         <v>1215200</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>7.403899999999999</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>8997215</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>7.403899999999999</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>14146</v>
@@ -9726,10 +9707,10 @@
         <v>1219300</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>7.857600000000001</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>9580758</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>7.857600000000001</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>16549</v>
@@ -9748,10 +9729,10 @@
         <v>1238400</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>9.381200000000002</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>11617697</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>9.381200000000002</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>13526</v>
@@ -9770,10 +9751,10 @@
         <v>1258400</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>6.293100000000001</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>7919224</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>6.293100000000001</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>15430</v>
@@ -9792,10 +9773,10 @@
         <v>1363009</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>7.5037</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>10227603</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>7.5037</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>9493</v>
@@ -9814,10 +9795,10 @@
         <v>1379811</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>6.9327</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>9565882</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>6.9327</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>7609</v>
@@ -9835,10 +9816,10 @@
         <v>1383773</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>6.9465</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>9612413</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>6.9465</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>5075</v>
@@ -9856,10 +9837,10 @@
         <v>1396000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>7.5365</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>10521000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>7.5365</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>5895</v>
@@ -9877,10 +9858,10 @@
         <v>1401000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>6.8437</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>9588000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>6.8437</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>9087</v>
@@ -9898,10 +9879,10 @@
         <v>1408000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>6.2322</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>8775000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>6.2322</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>6399</v>
@@ -9919,10 +9900,10 @@
         <v>1414000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>8.1365</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>11505000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>8.1365</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>5501</v>
@@ -9940,10 +9921,10 @@
         <v>1418000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>5.2828</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>7491000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>5.2828</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>6174</v>
@@ -10279,7 +10260,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10358,10 +10339,10 @@
         <v>360579</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>14.8678</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>5361010</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>14.8678</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>817242.9300000001</v>
@@ -10380,10 +10361,10 @@
         <v>363816</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>14.8677</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>5409090</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>14.8677</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>766458.1899999999</v>
@@ -10402,10 +10383,10 @@
         <v>365435</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>14.9793</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>5473950</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>14.9793</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>655185.2</v>
@@ -10424,10 +10405,10 @@
         <v>374338</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>14.6376</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>5479400</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>14.6376</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>663933.77</v>
@@ -10446,10 +10427,10 @@
         <v>378381</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>16.6893</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>6314914.79</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>16.6893</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>634202.84</v>
@@ -10468,10 +10449,10 @@
         <v>379190</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>18.1729</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>6890980</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>18.1729</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>585188.78</v>
@@ -10490,10 +10471,10 @@
         <v>403800</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>16.5887</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>6698520</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>16.5887</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>594877.4399999999</v>
@@ -10512,10 +10493,10 @@
         <v>408571</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>17.0904</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>6982630</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>17.0904</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>551001.16</v>
@@ -10534,10 +10515,10 @@
         <v>413873</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>16.8279</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>6964593</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>16.8279</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>571701.45</v>
@@ -10556,10 +10537,10 @@
         <v>418607</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>17.0855</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>7152090</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>17.0855</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>501311</v>
@@ -10578,10 +10559,10 @@
         <v>421651</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>18.5714</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>7830637</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>18.5714</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>495313</v>
@@ -10600,10 +10581,10 @@
         <v>411979</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>16.5831</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>6831902</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>16.5831</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>486474</v>
@@ -10622,10 +10603,10 @@
         <v>388539</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>17.3894</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>6756457</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>17.3894</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>518369</v>
@@ -10644,10 +10625,10 @@
         <v>385221</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>17.5944</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>6777731</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>17.5944</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>539714</v>
@@ -10666,10 +10647,10 @@
         <v>382348</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>17.3381</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>6629198</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>17.3381</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>532642</v>
@@ -10688,10 +10669,10 @@
         <v>378766</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>17.5305</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>6639960</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>17.5305</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>527039</v>
@@ -10710,10 +10691,10 @@
         <v>378992</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>16.8929</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>6402277</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>16.8929</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>514043</v>
@@ -10732,10 +10713,10 @@
         <v>379271</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>15.1798</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>5757267</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>15.1798</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>530889</v>
@@ -10754,10 +10735,10 @@
         <v>378320</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>18.7367</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>7088470</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>18.7367</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>538880</v>
@@ -10776,10 +10757,10 @@
         <v>377614</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>14.9911</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>5660833</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>14.9911</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>471253</v>
@@ -10798,10 +10779,10 @@
         <v>384862</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>15.2971</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>5887268</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>15.2971</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>482486</v>
@@ -10820,10 +10801,10 @@
         <v>384431</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>17.3185</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>6657777</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>17.3185</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>444786</v>
@@ -10842,10 +10823,10 @@
         <v>377357</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>15.793</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>5959603</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>15.793</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>406651</v>
@@ -10864,10 +10845,10 @@
         <v>383016</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>18.2076</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>6973801</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>18.2076</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>469510.3</v>
@@ -10886,10 +10867,10 @@
         <v>366132</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>15.4521</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>5657509</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>15.4521</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>383672</v>
@@ -10908,10 +10889,10 @@
         <v>346480</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>15.2384</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>5279800</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>15.2384</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>405821</v>
@@ -10930,10 +10911,10 @@
         <v>338020</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>19.5027</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>6592300</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>19.5027</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>359928</v>
@@ -10952,10 +10933,10 @@
         <v>327320</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>15.394</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>5038750</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>15.394</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>359826</v>
@@ -10974,10 +10955,10 @@
         <v>316700</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>16.9643</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>5372600</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>16.9643</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>349666</v>
@@ -10996,10 +10977,10 @@
         <v>314300</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>16.9531</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>5328350</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>16.9531</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>323961</v>
@@ -11018,10 +10999,10 @@
         <v>307450</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>17.772</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>5464000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>17.772</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>321467</v>
@@ -11040,10 +11021,10 @@
         <v>301959</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>18.1813</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>5490000</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>18.1813</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>316920</v>
@@ -11062,10 +11043,10 @@
         <v>297800</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>16.9248</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>5040200</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>16.9248</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>332474</v>
@@ -11084,10 +11065,10 @@
         <v>299400</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>17.153</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>5135600</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>17.153</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>373553</v>
@@ -11106,10 +11087,10 @@
         <v>301500</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>17.8441</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>5380000</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>17.8441</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>280723</v>
@@ -11128,10 +11109,10 @@
         <v>307880</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>17.7738</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>5472200</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>17.7738</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>254153</v>
@@ -11150,10 +11131,10 @@
         <v>309050</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>15.4606</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>4778100</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>15.4606</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>219744</v>
@@ -11172,10 +11153,10 @@
         <v>311840</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>15.2078</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>4742400</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>15.2078</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>185723</v>
@@ -11194,10 +11175,10 @@
         <v>316540</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>16.0959</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>5095000</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>16.0959</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>173842</v>
@@ -11216,10 +11197,10 @@
         <v>311600</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>15.1637</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>4725000</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>15.1637</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>146346</v>
@@ -11238,10 +11219,10 @@
         <v>302010</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>16.5855</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>5009000</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>16.5855</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>113342</v>
@@ -11260,10 +11241,10 @@
         <v>302500</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>19.6585</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>5946690</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>19.6585</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>82103</v>
@@ -11282,10 +11263,10 @@
         <v>290800</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>13.9078</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>4044390</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>13.9078</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>58712</v>
@@ -11304,10 +11285,10 @@
         <v>281900</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>18.0055</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>5075760</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>18.0055</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>44498</v>
@@ -11326,10 +11307,10 @@
         <v>281860</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>16.0574</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>4525940</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>16.0574</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>41524</v>
@@ -11348,10 +11329,10 @@
         <v>291450</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>14.2146</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>4142840</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>14.2146</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>29516</v>
@@ -11370,10 +11351,10 @@
         <v>293070</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>13.3035</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>3898850</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>13.3035</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>28375</v>
@@ -11392,10 +11373,10 @@
         <v>283840</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>14.0575</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>3990077</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>14.0575</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>22039</v>
@@ -11414,10 +11395,10 @@
         <v>253490</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>15.6263</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>3961111</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>15.6263</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>17866</v>
@@ -11436,10 +11417,10 @@
         <v>236700</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>16.0924</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>3809067</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>16.0924</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>15405</v>
@@ -11458,10 +11439,10 @@
         <v>222090</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>17.1492</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>3808659</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>17.1492</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>8536</v>
@@ -11480,10 +11461,10 @@
         <v>214930</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>10.884</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>2339300</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>10.884</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>11376</v>
@@ -11502,10 +11483,10 @@
         <v>216540</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>16.7344</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>3623658</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>16.7344</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>11655</v>
@@ -11524,10 +11505,10 @@
         <v>216710</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>12.991</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>2815279</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>12.991</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>13806</v>
@@ -11546,10 +11527,10 @@
         <v>219820</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>16.0848</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>3535759</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>16.0848</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>14323</v>
@@ -11568,10 +11549,10 @@
         <v>219130</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>14.6926</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>3219596</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>14.6926</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>13541</v>
@@ -11590,10 +11571,10 @@
         <v>220000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>12.6272</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>2777979</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>12.6272</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>13622</v>
@@ -11611,10 +11592,10 @@
         <v>221240</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>15.3124</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>3387706</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>15.3124</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>15669</v>
@@ -11632,10 +11613,10 @@
         <v>221200</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>17.8455</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>3947430</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>17.8455</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>18321</v>
@@ -11653,10 +11634,10 @@
         <v>219420</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>14.3797</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>3155186</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>14.3797</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>23117</v>
@@ -11674,10 +11655,10 @@
         <v>217520</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>15.819</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>3440949</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>15.819</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>10932</v>
@@ -11695,10 +11676,10 @@
         <v>214400</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>13.703</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>2937915</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>13.703</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>7901</v>
@@ -11716,10 +11697,10 @@
         <v>206950</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>14.2683</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>2952820</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>14.2683</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>5499</v>
@@ -12055,7 +12036,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -12134,10 +12115,10 @@
         <v>913000</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>5.2823</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>4822760</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>5.2823</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>67737.49000000001</v>
@@ -12156,10 +12137,10 @@
         <v>922920</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>6.395</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>5902040</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>6.395</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>81555.37</v>
@@ -12178,10 +12159,10 @@
         <v>929390</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>6.549399999999999</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>6086920</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>6.549399999999999</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>69792.42999999999</v>
@@ -12200,10 +12181,10 @@
         <v>931630</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>7.3181</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>6817770</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>7.3181</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>59683.56</v>
@@ -12222,10 +12203,10 @@
         <v>936890</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>6.1325</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>5745450</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>6.1325</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>53053.98</v>
@@ -12244,10 +12225,10 @@
         <v>939920</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>7.429600000000001</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>6983260</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>7.429600000000001</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>64113.48</v>
@@ -12266,10 +12247,10 @@
         <v>937763</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>5.745</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>5387403</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>5.745</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>58004.99</v>
@@ -12288,10 +12269,10 @@
         <v>935105</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>6.5264</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>6102851</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>6.5264</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>33764.34</v>
@@ -12310,10 +12291,10 @@
         <v>941056</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>6.1624</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>5799131</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>6.1624</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>34450.41</v>
@@ -12332,10 +12313,10 @@
         <v>931065</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>6.6833</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>6222584</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>6.6833</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>43646.25</v>
@@ -12354,10 +12335,10 @@
         <v>944200</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>7.9221</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>7480000</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>7.9221</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>33974</v>
@@ -12376,10 +12357,10 @@
         <v>947096</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>5332163</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>5.63</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>33683</v>
@@ -12398,10 +12379,10 @@
         <v>963095</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>6.031899999999999</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>5809315</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>6.031899999999999</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>42490</v>
@@ -12420,10 +12401,10 @@
         <v>1002100</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>6.0948</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>6107617</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>6.0948</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>42689</v>
@@ -12442,10 +12423,10 @@
         <v>1049358</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>5.275</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>5535333</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>5.275</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>45218</v>
@@ -12464,10 +12445,10 @@
         <v>1109049</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>5.3664</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>5951581</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>5.3664</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>42254</v>
@@ -12486,10 +12467,10 @@
         <v>1131315</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>5.2705</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>5962643</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>5.2705</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>30690</v>
@@ -12508,10 +12489,10 @@
         <v>1135229</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>5.809399999999999</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>6595056</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>5.809399999999999</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>28680</v>
@@ -12530,10 +12511,10 @@
         <v>1161411</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>5.2199</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>6062500</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>5.2199</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>31803</v>
@@ -12552,10 +12533,10 @@
         <v>1170625</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>6.0346</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>7064201</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>6.0346</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>24798</v>
@@ -12574,10 +12555,10 @@
         <v>1172797</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>6.1737</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>7240500</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>6.1737</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>26599</v>
@@ -12596,10 +12577,10 @@
         <v>1186107</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>5.0034</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>5934557</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>5.0034</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>21923</v>
@@ -12618,10 +12599,10 @@
         <v>1134892</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>4.6451</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>5271740</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>4.6451</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>24730</v>
@@ -12640,10 +12621,10 @@
         <v>1167703</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>5.6006</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>6539812</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>5.6006</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>17114</v>
@@ -12662,10 +12643,10 @@
         <v>1115282</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>5.028</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>5607660</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>5.028</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>20518</v>
@@ -12684,10 +12665,10 @@
         <v>1117900</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>4.604</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>5146810</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>4.604</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>17303</v>
@@ -12706,10 +12687,10 @@
         <v>1126989</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>4.901</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>5523400</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>4.901</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>18132</v>
@@ -12728,10 +12709,10 @@
         <v>1122400</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>4.4312</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>4973600</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>4.4312</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>8150</v>
@@ -12750,10 +12731,10 @@
         <v>1160100</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>2.8878</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>3350100</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>2.8878</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>12588</v>
@@ -12772,10 +12753,10 @@
         <v>1192600</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>2.7288</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>3254360</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>2.7288</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>12946</v>
@@ -12794,10 +12775,10 @@
         <v>1235000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>3.6985</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>4567600</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>3.6985</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>4713</v>
@@ -12816,10 +12797,10 @@
         <v>1309169</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>4.397699999999999</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>5757300</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>4.397699999999999</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>4059</v>
@@ -12838,10 +12819,10 @@
         <v>1378892</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>3.769</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>5197000</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>3.769</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>2873</v>
@@ -12860,10 +12841,10 @@
         <v>1402274</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>4.6166</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>6473800</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>4.6166</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>1801</v>
@@ -12882,10 +12863,10 @@
         <v>1434900</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>3.508</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>5033600</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>3.508</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>1389</v>
@@ -12904,10 +12885,10 @@
         <v>1439900</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>2.6116</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>3760400</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>2.6116</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>1053</v>
@@ -12926,10 +12907,10 @@
         <v>1514000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>4.204</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>6364800</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>4.204</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>168</v>
@@ -12948,10 +12929,10 @@
         <v>1531200</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>3.8287</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>5862500</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>3.8287</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>127</v>
@@ -12970,10 +12951,10 @@
         <v>1552387</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>3.5109</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>5450240</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>3.5109</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>16</v>
@@ -12992,10 +12973,10 @@
         <v>1587250</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>3.5484</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>5632200</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>3.5484</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>19</v>
@@ -13014,10 +12995,10 @@
         <v>1645330</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>3.1113</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>5119100</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>3.1113</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>11</v>
@@ -13036,10 +13017,10 @@
         <v>1658000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>3.6357</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>6028000</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>3.6357</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>7</v>
@@ -13058,10 +13039,10 @@
         <v>1657000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>3.2604</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>5402503</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>3.2604</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>1</v>
@@ -13080,10 +13061,10 @@
         <v>1657400</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>4.0554</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>6721400</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>4.0554</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -13102,10 +13083,10 @@
         <v>1632026</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>4.6803</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>7638300</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>4.6803</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>21</v>
@@ -13124,10 +13105,10 @@
         <v>1639622</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>2.8592</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>4688000</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>2.8592</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -13146,10 +13127,10 @@
         <v>1636900</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>2.184</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>3575000</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>2.184</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>3</v>
@@ -13168,10 +13149,10 @@
         <v>1622000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>2.5739</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>4174900</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>2.5739</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>380</v>
@@ -13190,10 +13171,10 @@
         <v>1610600</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>3.2299</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>5202100</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>3.2299</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>13</v>
@@ -13212,10 +13193,10 @@
         <v>1567000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>3.7394</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>5859600</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>3.7394</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>34</v>
@@ -13234,10 +13215,10 @@
         <v>1574200</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>4.1345</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>6508500</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>4.1345</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>178</v>
@@ -13256,10 +13237,10 @@
         <v>1540800</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>2.9633</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>4565800</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>2.9633</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>31</v>
@@ -13278,10 +13259,10 @@
         <v>1476200</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>2.7216</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>4017600</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>2.7216</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>3</v>
@@ -13300,10 +13281,10 @@
         <v>1528500</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>2.7083</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>4139700</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>2.7083</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>69</v>
@@ -13322,10 +13303,10 @@
         <v>1575000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>2.5305</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>3985600</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>2.5305</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>82</v>
@@ -13344,10 +13325,10 @@
         <v>1585800</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>2.4221</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>3841000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>2.4221</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>3</v>
@@ -13366,10 +13347,10 @@
         <v>1576400</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>2.3667</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>3730900</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>2.3667</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -13387,10 +13368,10 @@
         <v>1537100</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>3.2257</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>4958300</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>3.2257</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>12</v>
@@ -13408,10 +13389,10 @@
         <v>1688000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>2.5924</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>4376000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>2.5924</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -13429,10 +13410,10 @@
         <v>1678000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>3.2855</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>5513000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>3.2855</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -13450,10 +13431,10 @@
         <v>1660000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>2.4747</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>4108000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>2.4747</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -13471,10 +13452,10 @@
         <v>1640000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>2.3598</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>3870000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>2.3598</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -13492,10 +13473,10 @@
         <v>1742000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>1.8932</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>3298000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>1.8932</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>

--- a/Resultados/Mercado mundial - Uvas.xlsx
+++ b/Resultados/Mercado mundial - Uvas.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China, Continental" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Italia" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Francia" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Estados Unidos de América" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="España" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="China, mainland" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Italy" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="France" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="United States of America" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Spain" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -227,7 +227,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -301,8 +301,9 @@
     </xf>
     <xf numFmtId="10" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="16"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="16"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="16"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -406,13 +407,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -432,10 +433,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -488,13 +489,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -514,21 +515,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países productores'!$B$12:$B$23</f>
+              <f>'Países productores'!$B$12:$B$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países productores'!$C$12:$C$23</f>
+              <f>'Países productores'!$C$12:$C$24</f>
             </numRef>
           </val>
         </ser>
@@ -570,13 +571,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -596,10 +597,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -652,13 +653,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -678,21 +679,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países importadores'!$B$12:$B$23</f>
+              <f>'Países importadores'!$B$12:$B$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países importadores'!$C$12:$C$23</f>
+              <f>'Países importadores'!$C$12:$C$24</f>
             </numRef>
           </val>
         </ser>
@@ -734,13 +735,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -760,21 +761,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'China, Continental'!$B$12:$B$74</f>
+              <f>'China, mainland'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'China, Continental'!$C$12:$C$74</f>
+              <f>'China, mainland'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -816,13 +817,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -842,21 +843,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Italia'!$B$12:$B$74</f>
+              <f>'Italy'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Italia'!$C$12:$C$74</f>
+              <f>'Italy'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -898,13 +899,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -924,21 +925,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Francia'!$B$12:$B$74</f>
+              <f>'France'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Francia'!$C$12:$C$74</f>
+              <f>'France'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -980,13 +981,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1006,21 +1007,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Estados Unidos de América'!$B$12:$B$74</f>
+              <f>'United States of America'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Estados Unidos de América'!$C$12:$C$74</f>
+              <f>'United States of America'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1062,13 +1063,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1088,21 +1089,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'España'!$B$12:$B$74</f>
+              <f>'Spain'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'España'!$C$12:$C$74</f>
+              <f>'Spain'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1144,7 +1145,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1162,26 +1163,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1202,9 +1203,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1214,7 +1215,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1232,26 +1233,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1272,9 +1273,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1284,7 +1285,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1302,26 +1303,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1342,9 +1343,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1354,7 +1355,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1372,26 +1373,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1412,9 +1413,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1424,7 +1425,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1439,9 +1440,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1461,13 +1462,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1476,7 +1477,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1491,9 +1492,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1513,13 +1514,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1528,7 +1529,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1543,9 +1544,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1565,13 +1566,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1580,7 +1581,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1595,9 +1596,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1617,13 +1618,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1632,7 +1633,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1647,9 +1648,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1669,13 +1670,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2010,8 +2011,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2059,7 +2060,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2138,10 +2139,10 @@
         <v>6595680</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>72486522.15000001</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>10.99</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>72486522.15000001</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>4935116.63</v>
@@ -2160,10 +2161,10 @@
         <v>6733525</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>78207397.67</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>11.6146</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>78207397.67</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>5148667.9</v>
@@ -2182,10 +2183,10 @@
         <v>6775959</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>76765761.84</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>11.3291</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>76765761.84</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>5058332.21</v>
@@ -2204,10 +2205,10 @@
         <v>6873125</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>76813606.90000001</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>11.1759</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>76813606.90000001</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>4806393.92</v>
@@ -2226,10 +2227,10 @@
         <v>6913965</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>77093823.56999999</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>11.1505</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>77093823.56999999</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>4779952.73</v>
@@ -2248,10 +2249,10 @@
         <v>6876319</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>80102051.89</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>11.649</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>80102051.89</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>4635692.27</v>
@@ -2270,10 +2271,10 @@
         <v>6835575</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>73604918.83</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>10.7679</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>73604918.83</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>4705501.33</v>
@@ -2292,10 +2293,10 @@
         <v>6900713</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>74519542.84</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>10.7988</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>74519542.84</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>4279040.02</v>
@@ -2314,10 +2315,10 @@
         <v>7108139</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>76596654.01000001</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>10.7759</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>76596654.01000001</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>4288654.2</v>
@@ -2336,10 +2337,10 @@
         <v>7024488</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>73906888.75</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>10.5213</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>73906888.75</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>4060672.44</v>
@@ -2358,10 +2359,10 @@
         <v>7027292</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>76507661.59999999</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>10.8872</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>76507661.59999999</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>4042691</v>
@@ -2380,10 +2381,10 @@
         <v>6921380</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>68968307.16</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>9.964499999999999</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>68968307.16</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>3983411</v>
@@ -2402,10 +2403,10 @@
         <v>6929423</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>69170256.62</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>9.982100000000001</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>69170256.62</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>3858830</v>
@@ -2424,10 +2425,10 @@
         <v>6980117</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>66699404.71</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>9.5556</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>66699404.71</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>3706241</v>
@@ -2446,10 +2447,10 @@
         <v>7086161</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>67652330.84</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>9.5471</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>67652330.84</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>3725998</v>
@@ -2468,10 +2469,10 @@
         <v>7116163</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>66586192.82</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>9.356999999999999</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>66586192.82</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>3831025</v>
@@ -2490,10 +2491,10 @@
         <v>7209817</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>66182173.63</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>9.179500000000001</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>66182173.63</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>3549506</v>
@@ -2512,10 +2513,10 @@
         <v>7311740</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>66982402.66</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>9.1609</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>66982402.66</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>3372272</v>
@@ -2534,10 +2535,10 @@
         <v>7283259</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>66975614.89</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>9.195799999999998</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>66975614.89</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>3221122</v>
@@ -2556,10 +2557,10 @@
         <v>7285772</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>67207621.15000001</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>9.224500000000001</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>67207621.15000001</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>2940577</v>
@@ -2578,10 +2579,10 @@
         <v>7388996</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>63051140.63</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>8.533100000000001</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>63051140.63</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>2803895</v>
@@ -2600,10 +2601,10 @@
         <v>7340597</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>61164447.68</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>8.3324</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>61164447.68</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>2581951</v>
@@ -2622,10 +2623,10 @@
         <v>7284843</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>60861631.86</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>8.3546</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>60861631.86</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>2544193.49</v>
@@ -2644,10 +2645,10 @@
         <v>7254102</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>63552362.69</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>8.760899999999999</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>63552362.69</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>2611020.81</v>
@@ -2666,10 +2667,10 @@
         <v>7161974</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>60476117.37</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>8.444100000000001</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>60476117.37</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>2339008.54</v>
@@ -2688,10 +2689,10 @@
         <v>7115073</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>56432962.87</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>7.9315</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>56432962.87</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>2178603.27</v>
@@ -2710,10 +2711,10 @@
         <v>7182640</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>57961134.06</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>8.069600000000001</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>57961134.06</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>2162310.15</v>
@@ -2732,10 +2733,10 @@
         <v>7243349</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>58634763.94</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>8.095000000000001</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>58634763.94</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>2112135.06</v>
@@ -2754,10 +2755,10 @@
         <v>7322841</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>55381603.7</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>7.5629</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>55381603.7</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>1844566.09</v>
@@ -2776,10 +2777,10 @@
         <v>7425871</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>54083444.56</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>7.2831</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>54083444.56</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>1978377.16</v>
@@ -2798,10 +2799,10 @@
         <v>7506598</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>55291005.99</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>7.365699999999999</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>55291005.99</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>1793644</v>
@@ -2820,10 +2821,10 @@
         <v>7747202</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>60273349.11</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>7.78</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>60273349.11</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>1786736</v>
@@ -2842,10 +2843,10 @@
         <v>7828974</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>56073901.6</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>7.1624</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>56073901.6</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>1669716</v>
@@ -2864,10 +2865,10 @@
         <v>7971499</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>59746557</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>7.495</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>59746557</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>1623719</v>
@@ -2886,10 +2887,10 @@
         <v>8185142</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>58819583</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>7.186100000000001</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>58819583</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>1436956</v>
@@ -2908,10 +2909,10 @@
         <v>8249828</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>58126545</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>7.0458</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>58126545</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>1486478</v>
@@ -2930,10 +2931,10 @@
         <v>8368200</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>63968578</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>7.6442</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>63968578</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>1479586</v>
@@ -2952,10 +2953,10 @@
         <v>8475117</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>64051617</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>7.557600000000001</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>64051617</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>1393920</v>
@@ -2974,10 +2975,10 @@
         <v>8623126</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>58666690</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>6.8034</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>58666690</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>1390956</v>
@@ -2996,10 +2997,10 @@
         <v>8738754</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>64511650</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>7.3822</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>64511650</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>1181038</v>
@@ -3018,10 +3019,10 @@
         <v>8864528</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>67262266</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>7.587800000000001</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>67262266</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>1262277</v>
@@ -3040,10 +3041,10 @@
         <v>9099047</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>72563177</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>7.9748</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>72563177</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>1101561</v>
@@ -3062,10 +3063,10 @@
         <v>9225893</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>61664595</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>6.6839</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>61664595</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>1116672</v>
@@ -3084,10 +3085,10 @@
         <v>9217058</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>66493476</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>7.2142</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>66493476</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>1028061</v>
@@ -3106,10 +3107,10 @@
         <v>9201885</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>69221428</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>7.5225</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>69221428</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>1056534</v>
@@ -3128,10 +3129,10 @@
         <v>9285218</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>57357716</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>6.1773</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>57357716</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>1001161</v>
@@ -3150,10 +3151,10 @@
         <v>9275292</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>53161250</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>5.7315</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>53161250</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>914644</v>
@@ -3172,10 +3173,10 @@
         <v>9268553</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>59642898</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>6.435</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>59642898</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>874277</v>
@@ -3194,10 +3195,10 @@
         <v>9157909</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>58363332</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>6.373</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>58363332</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>925646</v>
@@ -3216,10 +3217,10 @@
         <v>9085223</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>61039152</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>6.7185</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>61039152</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>917677</v>
@@ -3238,10 +3239,10 @@
         <v>9052324</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>63183851</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>6.9798</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>63183851</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>892579</v>
@@ -3260,10 +3261,10 @@
         <v>9061350</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>50096650</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>5.5286</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>50096650</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>763537</v>
@@ -3282,10 +3283,10 @@
         <v>9046710</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>54302266</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>6.0024</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>54302266</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>939855</v>
@@ -3304,10 +3305,10 @@
         <v>9089699</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>55941538</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>6.1544</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>55941538</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>859796</v>
@@ -3326,10 +3327,10 @@
         <v>9181158</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>52968326</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>5.7692</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>52968326</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>930679</v>
@@ -3348,10 +3349,10 @@
         <v>9392240</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>55392051</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>5.897600000000001</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>55392051</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>819396</v>
@@ -3370,10 +3371,10 @@
         <v>9474774</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>53176109</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>5.6124</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>53176109</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>802093</v>
@@ -3391,10 +3392,10 @@
         <v>9488955</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>51804908</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>5.4595</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>51804908</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>791219</v>
@@ -3412,10 +3413,10 @@
         <v>9586778</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>55078912</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>5.7453</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>55078912</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>966165</v>
@@ -3433,10 +3434,10 @@
         <v>9619200</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>52354751</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>5.442699999999999</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>52354751</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>734470</v>
@@ -3454,10 +3455,10 @@
         <v>9491889</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>48033929</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>5.0605</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>48033929</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>719799</v>
@@ -3475,10 +3476,10 @@
         <v>9382918</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>53443674</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>5.6958</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>53443674</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>750462</v>
@@ -3496,10 +3497,10 @@
         <v>9333213</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>42987826</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>4.605899999999999</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>42987826</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>609851</v>
@@ -3786,8 +3787,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3882,7 +3883,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>China, Continental</t>
+          <t>China, mainland</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -3896,7 +3897,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Italia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -3910,7 +3911,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Francia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -3924,7 +3925,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -3938,7 +3939,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3994,7 +3995,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Sudáfrica</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4008,7 +4009,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Egipto</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4022,35 +4023,43 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>22569482.02</v>
+        <v>481128.87</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.3113610827306053</v>
+        <v>0.006637494195188118</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="C23" s="29" t="n">
+        <v>22088353.15000001</v>
+      </c>
+      <c r="D23" s="31" t="n">
+        <v>0.3047235885354172</v>
+      </c>
+      <c r="E23" s="29" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="29" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C23" s="29" t="n">
+      <c r="C24" s="29" t="n">
         <v>72486522.15000001</v>
       </c>
-      <c r="D23" s="31" t="n">
+      <c r="D24" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="29" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="29" t="n"/>
-      <c r="C24" s="29" t="n"/>
-      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
       <c r="G24" s="32" t="n"/>
     </row>
@@ -4061,40 +4070,41 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="12" t="n"/>
+      <c r="B26" s="29" t="n"/>
       <c r="C26" s="33" t="n"/>
-      <c r="D26" s="34" t="n"/>
+      <c r="D26" s="31" t="n"/>
+      <c r="E26" s="29" t="n"/>
     </row>
     <row r="27">
       <c r="C27" s="17" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
-      <c r="C28" s="33" t="n"/>
+      <c r="C28" s="35" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
-      <c r="C29" s="33" t="n"/>
+      <c r="C29" s="35" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
-      <c r="C30" s="33" t="n"/>
+      <c r="C30" s="35" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
-      <c r="C31" s="33" t="n"/>
+      <c r="C31" s="35" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
-      <c r="C32" s="33" t="n"/>
+      <c r="C32" s="35" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
-      <c r="C33" s="33" t="n"/>
+      <c r="C33" s="35" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
-      <c r="C34" s="33" t="n"/>
+      <c r="C34" s="35" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
   </sheetData>
@@ -4116,7 +4126,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4215,7 +4225,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4243,7 +4253,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>China, Continental</t>
+          <t>China, mainland</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4257,7 +4267,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Italia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4271,7 +4281,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Países Bajos (Reino de los)</t>
+          <t>Netherlands (Kingdom of the)</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4285,7 +4295,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Sudáfrica</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4313,7 +4323,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4327,7 +4337,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4341,7 +4351,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Egipto</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4398,124 +4408,124 @@
     <row r="26">
       <c r="B26" s="13" t="n"/>
       <c r="C26" s="17" t="n"/>
-      <c r="D26" s="35" t="n"/>
+      <c r="D26" s="36" t="n"/>
       <c r="E26" s="25" t="n"/>
       <c r="F26" s="25" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="13" t="n"/>
       <c r="C27" s="17" t="n"/>
-      <c r="D27" s="35" t="n"/>
+      <c r="D27" s="36" t="n"/>
       <c r="E27" s="25" t="n"/>
       <c r="F27" s="25" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="13" t="n"/>
       <c r="C28" s="17" t="n"/>
-      <c r="D28" s="35" t="n"/>
+      <c r="D28" s="36" t="n"/>
       <c r="E28" s="25" t="n"/>
       <c r="F28" s="25" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="13" t="n"/>
       <c r="C29" s="17" t="n"/>
-      <c r="D29" s="35" t="n"/>
+      <c r="D29" s="36" t="n"/>
       <c r="E29" s="25" t="n"/>
       <c r="F29" s="25" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="13" t="n"/>
       <c r="C30" s="17" t="n"/>
-      <c r="D30" s="35" t="n"/>
+      <c r="D30" s="36" t="n"/>
       <c r="E30" s="25" t="n"/>
       <c r="F30" s="25" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="13" t="n"/>
       <c r="C31" s="17" t="n"/>
-      <c r="D31" s="35" t="n"/>
+      <c r="D31" s="36" t="n"/>
       <c r="E31" s="25" t="n"/>
       <c r="F31" s="25" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="13" t="n"/>
       <c r="C32" s="17" t="n"/>
-      <c r="D32" s="35" t="n"/>
+      <c r="D32" s="36" t="n"/>
       <c r="E32" s="25" t="n"/>
       <c r="F32" s="25" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="13" t="n"/>
       <c r="C33" s="17" t="n"/>
-      <c r="D33" s="35" t="n"/>
+      <c r="D33" s="36" t="n"/>
       <c r="E33" s="25" t="n"/>
       <c r="F33" s="25" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="13" t="n"/>
       <c r="C34" s="17" t="n"/>
-      <c r="D34" s="35" t="n"/>
+      <c r="D34" s="36" t="n"/>
       <c r="E34" s="25" t="n"/>
       <c r="F34" s="25" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="13" t="n"/>
       <c r="C35" s="17" t="n"/>
-      <c r="D35" s="35" t="n"/>
+      <c r="D35" s="36" t="n"/>
       <c r="E35" s="25" t="n"/>
       <c r="F35" s="25" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="13" t="n"/>
       <c r="C36" s="17" t="n"/>
-      <c r="D36" s="35" t="n"/>
+      <c r="D36" s="36" t="n"/>
       <c r="E36" s="25" t="n"/>
       <c r="F36" s="25" t="n"/>
     </row>
     <row r="37">
       <c r="B37" s="13" t="n"/>
       <c r="C37" s="17" t="n"/>
-      <c r="D37" s="36" t="n"/>
+      <c r="D37" s="37" t="n"/>
       <c r="E37" s="25" t="n"/>
       <c r="F37" s="25" t="n"/>
     </row>
     <row r="38">
-      <c r="D38" s="36" t="n"/>
+      <c r="D38" s="37" t="n"/>
       <c r="E38" s="25" t="n"/>
       <c r="F38" s="25" t="n"/>
     </row>
     <row r="39">
-      <c r="D39" s="36" t="n"/>
+      <c r="D39" s="37" t="n"/>
       <c r="E39" s="25" t="n"/>
       <c r="F39" s="25" t="n"/>
     </row>
     <row r="40">
-      <c r="D40" s="36" t="n"/>
+      <c r="D40" s="37" t="n"/>
       <c r="E40" s="25" t="n"/>
       <c r="F40" s="25" t="n"/>
     </row>
     <row r="41">
-      <c r="D41" s="36" t="n"/>
+      <c r="D41" s="37" t="n"/>
       <c r="E41" s="25" t="n"/>
       <c r="F41" s="25" t="n"/>
     </row>
     <row r="42">
-      <c r="D42" s="36" t="n"/>
+      <c r="D42" s="37" t="n"/>
       <c r="E42" s="25" t="n"/>
       <c r="F42" s="25" t="n"/>
     </row>
     <row r="43">
-      <c r="D43" s="36" t="n"/>
+      <c r="D43" s="37" t="n"/>
       <c r="E43" s="25" t="n"/>
       <c r="F43" s="25" t="n"/>
     </row>
     <row r="44">
-      <c r="D44" s="36" t="n"/>
+      <c r="D44" s="37" t="n"/>
       <c r="E44" s="25" t="n"/>
       <c r="F44" s="25" t="n"/>
     </row>
     <row r="45">
-      <c r="D45" s="36" t="n"/>
+      <c r="D45" s="37" t="n"/>
       <c r="E45" s="25" t="n"/>
       <c r="F45" s="25" t="n"/>
     </row>
@@ -4537,8 +4547,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4633,7 +4643,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4647,7 +4657,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Países Bajos (Reino de los)</t>
+          <t>Netherlands (Kingdom of the)</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4661,7 +4671,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Alemania</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4675,7 +4685,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Federación de Rusia</t>
+          <t>Russian Federation</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4689,7 +4699,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Reino Unido de Gran Bretaña e Irlanda del Norte</t>
+          <t>United Kingdom of Great Britain and Northern Ireland</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4703,7 +4713,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Canadá</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4717,7 +4727,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>China, Continental</t>
+          <t>China, mainland</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4731,7 +4741,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Pakistán</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4759,7 +4769,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Tailandia</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4773,35 +4783,43 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>2008325.54</v>
+        <v>125195.07</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.4069459124413844</v>
+        <v>0.02536820897786969</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="C23" s="29" t="n">
+        <v>1883130.47</v>
+      </c>
+      <c r="D23" s="31" t="n">
+        <v>0.3815777034635148</v>
+      </c>
+      <c r="E23" s="29" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="29" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C23" s="29" t="n">
+      <c r="C24" s="29" t="n">
         <v>4935116.63</v>
       </c>
-      <c r="D23" s="31" t="n">
+      <c r="D24" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="29" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="29" t="n"/>
-      <c r="C24" s="29" t="n"/>
-      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
     </row>
     <row r="25">
@@ -4811,59 +4829,60 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="15" t="n"/>
-      <c r="C26" s="37" t="n"/>
-      <c r="D26" s="34" t="n"/>
+      <c r="B26" s="29" t="n"/>
+      <c r="C26" s="33" t="n"/>
+      <c r="D26" s="31" t="n"/>
+      <c r="E26" s="29" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="15" t="n"/>
-      <c r="C27" s="37" t="n"/>
+      <c r="C27" s="38" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="15" t="n"/>
-      <c r="C28" s="37" t="n"/>
+      <c r="C28" s="38" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="15" t="n"/>
-      <c r="C29" s="37" t="n"/>
+      <c r="C29" s="38" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="15" t="n"/>
-      <c r="C30" s="37" t="n"/>
+      <c r="C30" s="38" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="15" t="n"/>
-      <c r="C31" s="37" t="n"/>
+      <c r="C31" s="38" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="15" t="n"/>
-      <c r="C32" s="37" t="n"/>
+      <c r="C32" s="38" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="15" t="n"/>
-      <c r="C33" s="37" t="n"/>
+      <c r="C33" s="38" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="15" t="n"/>
-      <c r="C34" s="37" t="n"/>
+      <c r="C34" s="38" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="15" t="n"/>
-      <c r="C35" s="37" t="n"/>
-      <c r="D35" s="36" t="n"/>
+      <c r="C35" s="38" t="n"/>
+      <c r="D35" s="37" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="15" t="n"/>
-      <c r="C36" s="37" t="n"/>
-      <c r="D36" s="36" t="n"/>
+      <c r="C36" s="38" t="n"/>
+      <c r="D36" s="37" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4932,7 +4951,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5011,10 +5030,10 @@
         <v>607030</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>13500000</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>22.2394</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>13500000</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>166704.51</v>
@@ -5033,10 +5052,10 @@
         <v>705110</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>15377900</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>21.8092</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>15377900</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>180596.79</v>
@@ -5055,10 +5074,10 @@
         <v>701550</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>14998000</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>21.3784</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>14998000</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>194602.74</v>
@@ -5077,10 +5096,10 @@
         <v>710717</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>14314100</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>20.1404</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>14314100</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>250499.1</v>
@@ -5099,10 +5118,10 @@
         <v>743192</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>14195400</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>19.1006</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>14195400</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>252293.67</v>
@@ -5121,10 +5140,10 @@
         <v>725100</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>13666800</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>18.8482</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>13666800</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>231666.88</v>
@@ -5143,10 +5162,10 @@
         <v>706550</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>13082900</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>18.5166</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>13082900</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>233912.37</v>
@@ -5165,10 +5184,10 @@
         <v>721918</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>12629400</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>17.4942</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>12629400</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>252396.11</v>
@@ -5187,10 +5206,10 @@
         <v>799200</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>13164100</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>16.4716</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>13164100</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>215756.48</v>
@@ -5209,10 +5228,10 @@
         <v>767200</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>11731000</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>15.2907</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>11731000</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>211019.39</v>
@@ -5231,10 +5250,10 @@
         <v>646570</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>10884600</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>16.8344</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>10884600</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>185228</v>
@@ -5253,10 +5272,10 @@
         <v>612750</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>10005900</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>16.3295</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>10005900</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>146052</v>
@@ -5275,10 +5294,10 @@
         <v>550280</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>8576900</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>15.5864</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>8576900</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>122909</v>
@@ -5297,10 +5316,10 @@
         <v>513170</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>8135300</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>15.853</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>8135300</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>81744</v>
@@ -5319,10 +5338,10 @@
         <v>465520</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>7648800</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>16.4307</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>7648800</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>89766</v>
@@ -5341,10 +5360,10 @@
         <v>433070</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>6982400</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>16.123</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>6982400</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>51614</v>
@@ -5363,10 +5382,10 @@
         <v>415180</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>6439800</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>15.5109</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>6439800</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>42775</v>
@@ -5385,10 +5404,10 @@
         <v>418730</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>6270800</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>14.9758</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>6270800</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>46021</v>
@@ -5407,10 +5426,10 @@
         <v>407920</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>5794400</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>14.2047</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>5794400</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>57490</v>
@@ -5429,10 +5448,10 @@
         <v>413500</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>5675300</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>13.725</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>5675300</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>58887</v>
@@ -5451,10 +5470,10 @@
         <v>420830</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>5175900</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>12.2993</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>5175900</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>53412</v>
@@ -5473,10 +5492,10 @@
         <v>392330</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>4479500</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>11.4177</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>4479500</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>54877</v>
@@ -5495,10 +5514,10 @@
         <v>334380</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>3680000</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>11.0054</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>3680000</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>48587</v>
@@ -5517,10 +5536,10 @@
         <v>282970</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>3281700</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>11.5973</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>3281700</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>52407.96</v>
@@ -5539,10 +5558,10 @@
         <v>223210</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>2708100</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>12.1325</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>2708100</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>44156</v>
@@ -5561,10 +5580,10 @@
         <v>177960</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>2358200</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>13.2513</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>2358200</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>7023</v>
@@ -5583,10 +5602,10 @@
         <v>158230</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>2032800</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>12.8471</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>2032800</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>4795</v>
@@ -5605,10 +5624,10 @@
         <v>153490</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>1883100</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>12.2686</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>1883100</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>6299</v>
@@ -5627,10 +5646,10 @@
         <v>152500</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>1741700</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>11.421</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>1741700</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>3669</v>
@@ -5649,10 +5668,10 @@
         <v>148900</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>1522100</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>10.2223</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>1522100</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>678</v>
@@ -5671,10 +5690,10 @@
         <v>134000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>1354800</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>10.1104</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>1354800</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>535</v>
@@ -5693,10 +5712,10 @@
         <v>139000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>1125100</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>8.094199999999999</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>1125100</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>20</v>
@@ -5715,10 +5734,10 @@
         <v>113933</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>915900</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>8.0389</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>915900</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>5</v>
@@ -5737,10 +5756,10 @@
         <v>122600</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>858525</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>7.0027</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>858525</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>6</v>
@@ -5759,10 +5778,10 @@
         <v>138667</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>874245</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>6.304600000000001</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>874245</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>16</v>
@@ -5781,10 +5800,10 @@
         <v>146600</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>792247</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>5.404100000000001</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>792247</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>20</v>
@@ -5803,10 +5822,10 @@
         <v>143000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>641000</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>4.4825</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>641000</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>18</v>
@@ -5825,10 +5844,10 @@
         <v>115000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>441590</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>3.8399</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>441590</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>11</v>
@@ -5847,10 +5866,10 @@
         <v>87000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>361410</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>4.154100000000001</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>361410</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -5869,10 +5888,10 @@
         <v>64000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>294000</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>4.5938</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>294000</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -5891,10 +5910,10 @@
         <v>58400</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>247100</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>4.231199999999999</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>247100</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -5913,10 +5932,10 @@
         <v>46700</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>186000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>3.9829</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>186000</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -5935,10 +5954,10 @@
         <v>37000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>148000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>4</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>148000</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -5957,10 +5976,10 @@
         <v>32000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>110000</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>3.4375</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>110000</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -5979,10 +5998,10 @@
         <v>30700</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>125700</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>4.0945</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>125700</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -6001,10 +6020,10 @@
         <v>25000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>104000</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>4.16</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>104000</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -6023,10 +6042,10 @@
         <v>20000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>91000</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>4.55</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>91000</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -6045,10 +6064,10 @@
         <v>20000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>117000</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>5.85</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>117000</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -6067,10 +6086,10 @@
         <v>19000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>123000</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>6.4737</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>123000</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -6089,10 +6108,10 @@
         <v>19000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>104000</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>5.4737</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>104000</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -6111,10 +6130,10 @@
         <v>19000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>115000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>6.0526</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>115000</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -6133,10 +6152,10 @@
         <v>18000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>101000</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>5.6111</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>101000</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -6155,10 +6174,10 @@
         <v>18000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>104000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>5.7778</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>104000</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -6177,10 +6196,10 @@
         <v>18000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>85000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>4.7222</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>85000</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -6199,10 +6218,10 @@
         <v>18000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>95000</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>5.2778</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>95000</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -6221,10 +6240,10 @@
         <v>17000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>5.8824</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>100000</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -6243,10 +6262,10 @@
         <v>17000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>90000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>5.2941</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>90000</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -6264,10 +6283,10 @@
         <v>17000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>98000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>5.764699999999999</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>98000</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -6285,10 +6304,10 @@
         <v>15000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>6.6667</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>100000</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -6306,10 +6325,10 @@
         <v>13000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>7.6923</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>100000</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -6327,10 +6346,10 @@
         <v>12000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>85000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>7.0833</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>85000</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -6348,10 +6367,10 @@
         <v>12000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>84000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>7</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>84000</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -6369,10 +6388,10 @@
         <v>10000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>70000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>7</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>70000</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -6708,7 +6727,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6787,10 +6806,10 @@
         <v>713350</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>6668830</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>9.348600000000001</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>6668830</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>20705.9</v>
@@ -6809,10 +6828,10 @@
         <v>709890</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>8437970</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>11.8863</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>8437970</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>18571.06</v>
@@ -6831,10 +6850,10 @@
         <v>702670</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>8149400</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>11.5978</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>8149400</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>19506.82</v>
@@ -6853,10 +6872,10 @@
         <v>703900</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>8222360</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>11.6811</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>8222360</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>18985.26</v>
@@ -6875,10 +6894,10 @@
         <v>697910</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>7900120</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>11.3197</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>7900120</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>21679.86</v>
@@ -6897,10 +6916,10 @@
         <v>675820</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>8513640</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>12.5975</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>8513640</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>19641.08</v>
@@ -6919,10 +6938,10 @@
         <v>670085</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>7169745</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>10.6998</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>7169745</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>23917.77</v>
@@ -6941,10 +6960,10 @@
         <v>668087</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>8201913.6</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>12.2767</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>8201913.6</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>23014.86</v>
@@ -6963,10 +6982,10 @@
         <v>672858</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>7915007.5</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>11.7633</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>7915007.5</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>24414.72</v>
@@ -6985,10 +7004,10 @@
         <v>682183</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>6930794.4</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>10.1597</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>6930794.4</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>21723.2</v>
@@ -7007,10 +7026,10 @@
         <v>702106</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>8010364.2</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>11.4091</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>8010364.2</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>19097</v>
@@ -7029,10 +7048,10 @@
         <v>686644</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>6918043.9</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>10.0752</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>6918043.9</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>22967</v>
@@ -7051,10 +7070,10 @@
         <v>725353</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>7444881</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>10.2638</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>7444881</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>23735</v>
@@ -7073,10 +7092,10 @@
         <v>777500</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>7787800</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>10.0165</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>7787800</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>23056</v>
@@ -7095,10 +7114,10 @@
         <v>801900</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>8242500</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>10.2787</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>8242500</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>23355</v>
@@ -7117,10 +7136,10 @@
         <v>788100</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>7793301</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>9.8887</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>7793301</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>25240</v>
@@ -7139,10 +7158,10 @@
         <v>782000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>7392543</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>9.4534</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>7392543</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>23564</v>
@@ -7161,10 +7180,10 @@
         <v>786000</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>8326688</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>10.5938</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>8326688</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>21245</v>
@@ -7183,10 +7202,10 @@
         <v>793000</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>8553576</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>10.7864</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>8553576</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>19899</v>
@@ -7205,10 +7224,10 @@
         <v>787000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>8691970</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>11.0444</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>8691970</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>20003</v>
@@ -7227,10 +7246,10 @@
         <v>835546</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>7482936</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>8.9557</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>7482936</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>16608</v>
@@ -7249,10 +7268,10 @@
         <v>836330</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>7393880</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>8.8409</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>7393880</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>14430</v>
@@ -7271,10 +7290,10 @@
         <v>859859</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>8988400</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>10.4533</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>8988400</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>12453</v>
@@ -7293,10 +7312,10 @@
         <v>872730</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>8869500</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>10.1629</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>8869500</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>14263</v>
@@ -7315,10 +7334,10 @@
         <v>877194</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>9361924</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>10.6726</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>9361924</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>12379</v>
@@ -7337,10 +7356,10 @@
         <v>874390</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>9256801</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>10.5866</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>9256801</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>8131</v>
@@ -7359,10 +7378,10 @@
         <v>879526</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>8057540</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>9.161200000000001</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>8057540</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>12389</v>
@@ -7381,10 +7400,10 @@
         <v>896260</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>9464542</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>10.56</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>9464542</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>10975</v>
@@ -7403,10 +7422,10 @@
         <v>899105</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>8447720</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>9.395700000000001</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>8447720</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>7352</v>
@@ -7425,10 +7444,10 @@
         <v>925662</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>9321668</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>10.0703</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>9321668</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>10616</v>
@@ -7447,10 +7466,10 @@
         <v>948262</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>9750240</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>10.2822</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>9750240</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>9954</v>
@@ -7469,10 +7488,10 @@
         <v>975411</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>10624696</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>10.8925</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>10624696</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>11477</v>
@@ -7491,10 +7510,10 @@
         <v>992867</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>9397410</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>9.4649</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>9397410</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>11369</v>
@@ -7513,10 +7532,10 @@
         <v>1024282</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>8438000</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>8.238</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>8438000</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>9579</v>
@@ -7535,10 +7554,10 @@
         <v>1037078</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>9449110</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>9.1113</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>9449110</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>6796</v>
@@ -7557,10 +7576,10 @@
         <v>1046312</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>9545480</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>9.122999999999999</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>9545480</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>10018</v>
@@ -7579,10 +7598,10 @@
         <v>1055685</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>11504770</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>10.8979</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>11504770</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>8119</v>
@@ -7601,10 +7620,10 @@
         <v>1060432</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>11531900</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>10.8747</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>11531900</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>4844</v>
@@ -7623,10 +7642,10 @@
         <v>1071773</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>9583700</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>8.9419</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>9583700</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>8884</v>
@@ -7645,10 +7664,10 @@
         <v>1099767</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>10751200</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>9.7759</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>10751200</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>4324</v>
@@ -7667,10 +7686,10 @@
         <v>1106839</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>12974700</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>11.7223</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>12974700</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>4060</v>
@@ -7689,10 +7708,10 @@
         <v>1322600</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>11448600</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>8.6561</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>11448600</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>3207</v>
@@ -7711,10 +7730,10 @@
         <v>1335000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>10906000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>8.1693</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>10906000</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>3274</v>
@@ -7733,10 +7752,10 @@
         <v>1349000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>13244500</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>9.818</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>13244500</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>1941</v>
@@ -7755,10 +7774,10 @@
         <v>1297700</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>13038900</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>10.0477</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>13038900</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>2319</v>
@@ -7777,10 +7796,10 @@
         <v>1349500</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>11182700</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>8.2866</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>11182700</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>2020</v>
@@ -7799,10 +7818,10 @@
         <v>1347400</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>10113700</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>7.5061</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>10113700</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>1973</v>
@@ -7821,10 +7840,10 @@
         <v>1344500</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>10546800</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>7.844399999999999</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>10546800</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>2898</v>
@@ -7843,10 +7862,10 @@
         <v>1328000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>10916600</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>8.2203</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>10916600</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>3177</v>
@@ -7865,10 +7884,10 @@
         <v>1320000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>11809000</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>8.946200000000001</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>11809000</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>2962</v>
@@ -7887,10 +7906,10 @@
         <v>1302500</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>11842000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>9.091700000000001</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>11842000</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>3110</v>
@@ -7909,10 +7928,10 @@
         <v>1292300</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>9458400</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>7.319</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>9458400</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>3270</v>
@@ -7931,10 +7950,10 @@
         <v>1275500</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>10026000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>7.860399999999999</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>10026000</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>5125</v>
@@ -7953,10 +7972,10 @@
         <v>1330800</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>10724000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>8.058300000000001</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>10724000</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>4252</v>
@@ -7975,10 +7994,10 @@
         <v>1326900</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>11163000</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>8.412799999999999</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>11163000</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>3463</v>
@@ -7997,10 +8016,10 @@
         <v>1392800</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>10320000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>7.4095</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>10320000</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>4148</v>
@@ -8019,10 +8038,10 @@
         <v>1482900</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>11692000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>7.884600000000001</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>11692000</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>2276</v>
@@ -8040,10 +8059,10 @@
         <v>1535300</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>10150000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>6.6111</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>10150000</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>1772</v>
@@ -8061,10 +8080,10 @@
         <v>1555000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>10675000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>6.865</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>10675000</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>2174</v>
@@ -8082,10 +8101,10 @@
         <v>1650200</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>10358000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>6.276800000000001</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>10358000</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>928</v>
@@ -8103,10 +8122,10 @@
         <v>1663400</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>8698000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>5.229</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>8698000</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>547</v>
@@ -8124,10 +8143,10 @@
         <v>1685000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>10966000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>6.508</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>10966000</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>172</v>
@@ -8145,10 +8164,10 @@
         <v>1690700</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>8467000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>5.008</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>8467000</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>240</v>
@@ -8484,7 +8503,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8563,10 +8582,10 @@
         <v>753340</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>6205260</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>8.237</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>6205260</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>126285.68</v>
@@ -8585,10 +8604,10 @@
         <v>757550</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>6199950</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>8.184200000000001</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>6199950</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>147080.63</v>
@@ -8607,10 +8626,10 @@
         <v>757830</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>5073590</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>6.6949</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>5073590</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>134070.12</v>
@@ -8629,10 +8648,10 @@
         <v>759590</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>5857870</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>7.7119</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>5857870</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>131477.86</v>
@@ -8651,10 +8670,10 @@
         <v>755470</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>5489650</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>7.2665</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>5489650</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>116502.42</v>
@@ -8673,10 +8692,10 @@
         <v>750620</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>6267790</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>8.350200000000001</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>6267790</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>128496.99</v>
@@ -8695,10 +8714,10 @@
         <v>750463</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>5011053.7</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>6.6773</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>5011053.7</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>146248.43</v>
@@ -8717,10 +8736,10 @@
         <v>751366</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>6027505.7</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>8.0221</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>6027505.7</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>143859.11</v>
@@ -8739,10 +8758,10 @@
         <v>752101</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>6258363</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>8.321200000000001</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>6258363</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>144504.42</v>
@@ -8761,10 +8780,10 @@
         <v>757339</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>6204909</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>8.193</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>6204909</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>140853.5</v>
@@ -8783,10 +8802,10 @@
         <v>760546</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>5540835</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>7.2853</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>5540835</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>144782</v>
@@ -8805,10 +8824,10 @@
         <v>760804</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>5384561</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>7.0775</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>5384561</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>148842</v>
@@ -8827,10 +8846,10 @@
         <v>764164</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>6640980</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>8.6905</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>6640980</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>156116</v>
@@ -8849,10 +8868,10 @@
         <v>771530</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>5893530</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>7.6388</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>5893530</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>130897</v>
@@ -8871,10 +8890,10 @@
         <v>796128</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>6101525</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>7.664</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>6101525</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>150425</v>
@@ -8893,10 +8912,10 @@
         <v>814697</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>6019149</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>7.388199999999999</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>6019149</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>163068</v>
@@ -8915,10 +8934,10 @@
         <v>828885</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>6019056</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>7.2616</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>6019056</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>143308</v>
@@ -8937,10 +8956,10 @@
         <v>885165</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>6776880</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>7.6561</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>6776880</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>141557</v>
@@ -8959,10 +8978,10 @@
         <v>854824</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>6790215</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>7.9434</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>6790215</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>154997</v>
@@ -8981,10 +9000,10 @@
         <v>851970</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>7564902</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>8.879299999999999</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>7564902</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>150036</v>
@@ -9003,10 +9022,10 @@
         <v>851208</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>6307112</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>7.4096</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>6307112</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>154159</v>
@@ -9025,10 +9044,10 @@
         <v>861575</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>6853482</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>7.9546</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>6853482</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>135450</v>
@@ -9047,10 +9066,10 @@
         <v>861343</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>7225357</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>8.388500000000001</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>7225357</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>163979</v>
@@ -9069,10 +9088,10 @@
         <v>860979</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>7762582</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>9.016</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>7762582</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>160887</v>
@@ -9091,10 +9110,10 @@
         <v>863355</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>8040710</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>9.3133</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>8040710</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>142356</v>
@@ -9113,10 +9132,10 @@
         <v>862677</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>6919069</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>8.0205</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>6919069</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>156058</v>
@@ -9135,10 +9154,10 @@
         <v>878148</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>7190900</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>8.188699999999999</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>7190900</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>148162</v>
@@ -9157,10 +9176,10 @@
         <v>886690</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>7716400</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>8.702500000000001</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>7716400</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>135094</v>
@@ -9179,10 +9198,10 @@
         <v>894800</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>7212900</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>8.0609</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>7212900</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>122578</v>
@@ -9201,10 +9220,10 @@
         <v>898800</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>6945400</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>7.727399999999999</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>6945400</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>168348</v>
@@ -9223,10 +9242,10 @@
         <v>902000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>6657000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>7.3803</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>6657000</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>158520</v>
@@ -9245,10 +9264,10 @@
         <v>907300</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>7994900</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>8.8117</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>7994900</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>159483</v>
@@ -9267,10 +9286,10 @@
         <v>901829</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>5465540</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>6.0605</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>5465540</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>163673</v>
@@ -9289,10 +9308,10 @@
         <v>907778</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>8205280</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>9.0389</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>8205280</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>127993</v>
@@ -9311,10 +9330,10 @@
         <v>924300</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>7672400</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>8.300799999999999</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>7672400</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>123473</v>
@@ -9333,10 +9352,10 @@
         <v>945109</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>7218542</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>7.6378</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>7218542</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>147158</v>
@@ -9355,10 +9374,10 @@
         <v>989600</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>9186000</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>9.282500000000001</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>9186000</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>139480</v>
@@ -9377,10 +9396,10 @@
         <v>1002442</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>9474500</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>9.4514</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>9474500</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>136948</v>
@@ -9399,10 +9418,10 @@
         <v>1020400</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>8970000</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>8.790700000000001</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>8970000</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>143222</v>
@@ -9421,10 +9440,10 @@
         <v>1032200</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>9334000</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>9.0428</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>9334000</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>104072</v>
@@ -9443,10 +9462,10 @@
         <v>1049700</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>9930000</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>9.4598</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>9930000</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>140718</v>
@@ -9465,10 +9484,10 @@
         <v>1069200</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>11540000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>10.7931</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>11540000</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>99220</v>
@@ -9487,10 +9506,10 @@
         <v>1083000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>8610000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>7.9501</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>8610000</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>105013</v>
@@ -9509,10 +9528,10 @@
         <v>1113800</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>10321000</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>9.266500000000001</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>10321000</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>91105</v>
@@ -9531,10 +9550,10 @@
         <v>1166000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>12480000</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>10.7033</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>12480000</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>88425</v>
@@ -9553,10 +9572,10 @@
         <v>1176600</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>8711000</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>7.4035</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>8711000</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>93786</v>
@@ -9575,10 +9594,10 @@
         <v>1203900</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>7773000</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>6.4565</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>7773000</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>84470</v>
@@ -9597,10 +9616,10 @@
         <v>1226400</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>11100000</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>9.0509</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>11100000</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>37572</v>
@@ -9619,10 +9638,10 @@
         <v>1194100</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>8.374499999999999</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>10000000</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>51084</v>
@@ -9641,10 +9660,10 @@
         <v>1218600</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>11524000</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>9.456799999999999</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>11524000</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>22704</v>
@@ -9663,10 +9682,10 @@
         <v>1220600</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>12543626</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>10.2766</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>12543626</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>20519</v>
@@ -9685,10 +9704,10 @@
         <v>1215200</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>8997215</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>7.403899999999999</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>8997215</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>14146</v>
@@ -9707,10 +9726,10 @@
         <v>1219300</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>9580758</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>7.857600000000001</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>9580758</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>16549</v>
@@ -9729,10 +9748,10 @@
         <v>1238400</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>11617697</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>9.381200000000002</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>11617697</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>13526</v>
@@ -9751,10 +9770,10 @@
         <v>1258400</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>7919224</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>6.293100000000001</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>7919224</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>15430</v>
@@ -9773,10 +9792,10 @@
         <v>1363009</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>10227603</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>7.5037</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>10227603</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>9493</v>
@@ -9795,10 +9814,10 @@
         <v>1379811</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>9565882</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>6.9327</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>9565882</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>7609</v>
@@ -9816,10 +9835,10 @@
         <v>1383773</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>9612413</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>6.9465</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>9612413</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>5075</v>
@@ -9837,10 +9856,10 @@
         <v>1396000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>10521000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>7.5365</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>10521000</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>5895</v>
@@ -9858,10 +9877,10 @@
         <v>1401000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>9588000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>6.8437</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>9588000</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>9087</v>
@@ -9879,10 +9898,10 @@
         <v>1408000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>8775000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>6.2322</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>8775000</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>6399</v>
@@ -9900,10 +9919,10 @@
         <v>1414000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>11505000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>8.1365</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>11505000</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>5501</v>
@@ -9921,10 +9940,10 @@
         <v>1418000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>7491000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>5.2828</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>7491000</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>6174</v>
@@ -10260,7 +10279,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10339,10 +10358,10 @@
         <v>360579</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>5361010</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>14.8678</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>5361010</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>817242.9300000001</v>
@@ -10361,10 +10380,10 @@
         <v>363816</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>5409090</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>14.8677</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>5409090</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>766458.1899999999</v>
@@ -10383,10 +10402,10 @@
         <v>365435</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>5473950</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>14.9793</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>5473950</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>655185.2</v>
@@ -10405,10 +10424,10 @@
         <v>374338</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>5479400</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>14.6376</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>5479400</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>663933.77</v>
@@ -10427,10 +10446,10 @@
         <v>378381</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>6314914.79</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>16.6893</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>6314914.79</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>634202.84</v>
@@ -10449,10 +10468,10 @@
         <v>379190</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>6890980</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>18.1729</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>6890980</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>585188.78</v>
@@ -10471,10 +10490,10 @@
         <v>403800</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>6698520</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>16.5887</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>6698520</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>594877.4399999999</v>
@@ -10493,10 +10512,10 @@
         <v>408571</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>6982630</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>17.0904</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>6982630</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>551001.16</v>
@@ -10515,10 +10534,10 @@
         <v>413873</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>6964593</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>16.8279</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>6964593</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>571701.45</v>
@@ -10537,10 +10556,10 @@
         <v>418607</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>7152090</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>17.0855</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>7152090</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>501311</v>
@@ -10559,10 +10578,10 @@
         <v>421651</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>7830637</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>18.5714</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>7830637</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>495313</v>
@@ -10581,10 +10600,10 @@
         <v>411979</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>6831902</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>16.5831</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>6831902</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>486474</v>
@@ -10603,10 +10622,10 @@
         <v>388539</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>6756457</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>17.3894</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>6756457</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>518369</v>
@@ -10625,10 +10644,10 @@
         <v>385221</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>6777731</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>17.5944</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>6777731</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>539714</v>
@@ -10647,10 +10666,10 @@
         <v>382348</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>6629198</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>17.3381</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>6629198</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>532642</v>
@@ -10669,10 +10688,10 @@
         <v>378766</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>6639960</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>17.5305</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>6639960</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>527039</v>
@@ -10691,10 +10710,10 @@
         <v>378992</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>6402277</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>16.8929</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>6402277</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>514043</v>
@@ -10713,10 +10732,10 @@
         <v>379271</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>5757267</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>15.1798</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>5757267</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>530889</v>
@@ -10735,10 +10754,10 @@
         <v>378320</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>7088470</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>18.7367</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>7088470</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>538880</v>
@@ -10757,10 +10776,10 @@
         <v>377614</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>5660833</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>14.9911</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>5660833</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>471253</v>
@@ -10779,10 +10798,10 @@
         <v>384862</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>5887268</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>15.2971</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>5887268</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>482486</v>
@@ -10801,10 +10820,10 @@
         <v>384431</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>6657777</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>17.3185</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>6657777</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>444786</v>
@@ -10823,10 +10842,10 @@
         <v>377357</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>5959603</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>15.793</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>5959603</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>406651</v>
@@ -10845,10 +10864,10 @@
         <v>383016</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>6973801</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>18.2076</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>6973801</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>469510.3</v>
@@ -10867,10 +10886,10 @@
         <v>366132</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>5657509</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>15.4521</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>5657509</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>383672</v>
@@ -10889,10 +10908,10 @@
         <v>346480</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>5279800</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>15.2384</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>5279800</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>405821</v>
@@ -10911,10 +10930,10 @@
         <v>338020</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>6592300</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>19.5027</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>6592300</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>359928</v>
@@ -10933,10 +10952,10 @@
         <v>327320</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>5038750</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>15.394</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>5038750</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>359826</v>
@@ -10955,10 +10974,10 @@
         <v>316700</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>5372600</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>16.9643</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>5372600</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>349666</v>
@@ -10977,10 +10996,10 @@
         <v>314300</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>5328350</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>16.9531</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>5328350</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>323961</v>
@@ -10999,10 +11018,10 @@
         <v>307450</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>5464000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>17.772</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>5464000</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>321467</v>
@@ -11021,10 +11040,10 @@
         <v>301959</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>5490000</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>18.1813</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>5490000</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>316920</v>
@@ -11043,10 +11062,10 @@
         <v>297800</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>5040200</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>16.9248</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>5040200</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>332474</v>
@@ -11065,10 +11084,10 @@
         <v>299400</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>5135600</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>17.153</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>5135600</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>373553</v>
@@ -11087,10 +11106,10 @@
         <v>301500</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>5380000</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>17.8441</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>5380000</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>280723</v>
@@ -11109,10 +11128,10 @@
         <v>307880</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>5472200</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>17.7738</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>5472200</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>254153</v>
@@ -11131,10 +11150,10 @@
         <v>309050</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>4778100</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>15.4606</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>4778100</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>219744</v>
@@ -11153,10 +11172,10 @@
         <v>311840</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>4742400</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>15.2078</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>4742400</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>185723</v>
@@ -11175,10 +11194,10 @@
         <v>316540</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>5095000</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>16.0959</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>5095000</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>173842</v>
@@ -11197,10 +11216,10 @@
         <v>311600</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>4725000</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>15.1637</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>4725000</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>146346</v>
@@ -11219,10 +11238,10 @@
         <v>302010</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>5009000</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>16.5855</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>5009000</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>113342</v>
@@ -11241,10 +11260,10 @@
         <v>302500</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>5946690</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>19.6585</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>5946690</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>82103</v>
@@ -11263,10 +11282,10 @@
         <v>290800</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>4044390</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>13.9078</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>4044390</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>58712</v>
@@ -11285,10 +11304,10 @@
         <v>281900</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>5075760</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>18.0055</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>5075760</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>44498</v>
@@ -11307,10 +11326,10 @@
         <v>281860</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>4525940</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>16.0574</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>4525940</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>41524</v>
@@ -11329,10 +11348,10 @@
         <v>291450</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>4142840</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>14.2146</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>4142840</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>29516</v>
@@ -11351,10 +11370,10 @@
         <v>293070</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>3898850</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>13.3035</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>3898850</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>28375</v>
@@ -11373,10 +11392,10 @@
         <v>283840</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>3990077</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>14.0575</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>3990077</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>22039</v>
@@ -11395,10 +11414,10 @@
         <v>253490</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>3961111</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>15.6263</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>3961111</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>17866</v>
@@ -11417,10 +11436,10 @@
         <v>236700</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>3809067</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>16.0924</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>3809067</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>15405</v>
@@ -11439,10 +11458,10 @@
         <v>222090</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>3808659</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>17.1492</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>3808659</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>8536</v>
@@ -11461,10 +11480,10 @@
         <v>214930</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>2339300</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>10.884</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>2339300</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>11376</v>
@@ -11483,10 +11502,10 @@
         <v>216540</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>3623658</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>16.7344</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>3623658</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>11655</v>
@@ -11505,10 +11524,10 @@
         <v>216710</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>2815279</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>12.991</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>2815279</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>13806</v>
@@ -11527,10 +11546,10 @@
         <v>219820</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>3535759</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>16.0848</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>3535759</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>14323</v>
@@ -11549,10 +11568,10 @@
         <v>219130</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>3219596</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>14.6926</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>3219596</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>13541</v>
@@ -11571,10 +11590,10 @@
         <v>220000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>2777979</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>12.6272</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>2777979</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>13622</v>
@@ -11592,10 +11611,10 @@
         <v>221240</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>3387706</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>15.3124</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>3387706</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>15669</v>
@@ -11613,10 +11632,10 @@
         <v>221200</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>3947430</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>17.8455</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>3947430</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>18321</v>
@@ -11634,10 +11653,10 @@
         <v>219420</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>3155186</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>14.3797</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>3155186</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>23117</v>
@@ -11655,10 +11674,10 @@
         <v>217520</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>3440949</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>15.819</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>3440949</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>10932</v>
@@ -11676,10 +11695,10 @@
         <v>214400</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>2937915</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>13.703</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>2937915</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>7901</v>
@@ -11697,10 +11716,10 @@
         <v>206950</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>2952820</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>14.2683</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>2952820</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>5499</v>
@@ -12036,7 +12055,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -12115,10 +12134,10 @@
         <v>913000</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>4822760</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>5.2823</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>4822760</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>67737.49000000001</v>
@@ -12137,10 +12156,10 @@
         <v>922920</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>5902040</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>6.395</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>5902040</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>81555.37</v>
@@ -12159,10 +12178,10 @@
         <v>929390</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>6086920</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>6.549399999999999</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>6086920</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>69792.42999999999</v>
@@ -12181,10 +12200,10 @@
         <v>931630</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>6817770</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>7.3181</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>6817770</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>59683.56</v>
@@ -12203,10 +12222,10 @@
         <v>936890</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>5745450</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>6.1325</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>5745450</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>53053.98</v>
@@ -12225,10 +12244,10 @@
         <v>939920</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>6983260</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>7.429600000000001</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>6983260</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>64113.48</v>
@@ -12247,10 +12266,10 @@
         <v>937763</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>5387403</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>5.745</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>5387403</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>58004.99</v>
@@ -12269,10 +12288,10 @@
         <v>935105</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>6102851</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>6.5264</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>6102851</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>33764.34</v>
@@ -12291,10 +12310,10 @@
         <v>941056</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>5799131</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>6.1624</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>5799131</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>34450.41</v>
@@ -12313,10 +12332,10 @@
         <v>931065</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>6222584</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>6.6833</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>6222584</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>43646.25</v>
@@ -12335,10 +12354,10 @@
         <v>944200</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>7480000</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>7.9221</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>7480000</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>33974</v>
@@ -12357,10 +12376,10 @@
         <v>947096</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>5332163</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>5.63</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>5332163</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>33683</v>
@@ -12379,10 +12398,10 @@
         <v>963095</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>5809315</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>6.031899999999999</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>5809315</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>42490</v>
@@ -12401,10 +12420,10 @@
         <v>1002100</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>6107617</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>6.0948</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>6107617</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>42689</v>
@@ -12423,10 +12442,10 @@
         <v>1049358</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>5535333</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>5.275</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>5535333</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>45218</v>
@@ -12445,10 +12464,10 @@
         <v>1109049</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>5951581</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>5.3664</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>5951581</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>42254</v>
@@ -12467,10 +12486,10 @@
         <v>1131315</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>5962643</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>5.2705</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>5962643</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>30690</v>
@@ -12489,10 +12508,10 @@
         <v>1135229</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>6595056</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>5.809399999999999</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>6595056</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>28680</v>
@@ -12511,10 +12530,10 @@
         <v>1161411</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>6062500</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>5.2199</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>6062500</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>31803</v>
@@ -12533,10 +12552,10 @@
         <v>1170625</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>7064201</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>6.0346</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>7064201</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>24798</v>
@@ -12555,10 +12574,10 @@
         <v>1172797</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>7240500</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>6.1737</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>7240500</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>26599</v>
@@ -12577,10 +12596,10 @@
         <v>1186107</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>5934557</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>5.0034</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>5934557</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>21923</v>
@@ -12599,10 +12618,10 @@
         <v>1134892</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>5271740</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>4.6451</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>5271740</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>24730</v>
@@ -12621,10 +12640,10 @@
         <v>1167703</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>6539812</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>5.6006</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>6539812</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>17114</v>
@@ -12643,10 +12662,10 @@
         <v>1115282</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>5607660</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>5.028</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>5607660</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>20518</v>
@@ -12665,10 +12684,10 @@
         <v>1117900</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>5146810</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>4.604</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>5146810</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>17303</v>
@@ -12687,10 +12706,10 @@
         <v>1126989</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>5523400</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>4.901</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>5523400</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>18132</v>
@@ -12709,10 +12728,10 @@
         <v>1122400</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>4973600</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>4.4312</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>4973600</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>8150</v>
@@ -12731,10 +12750,10 @@
         <v>1160100</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>3350100</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>2.8878</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>3350100</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>12588</v>
@@ -12753,10 +12772,10 @@
         <v>1192600</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>3254360</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>2.7288</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>3254360</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>12946</v>
@@ -12775,10 +12794,10 @@
         <v>1235000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>4567600</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>3.6985</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>4567600</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>4713</v>
@@ -12797,10 +12816,10 @@
         <v>1309169</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>5757300</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>4.397699999999999</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>5757300</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>4059</v>
@@ -12819,10 +12838,10 @@
         <v>1378892</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>5197000</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>3.769</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>5197000</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>2873</v>
@@ -12841,10 +12860,10 @@
         <v>1402274</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>6473800</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>4.6166</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>6473800</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>1801</v>
@@ -12863,10 +12882,10 @@
         <v>1434900</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>5033600</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>3.508</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>5033600</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>1389</v>
@@ -12885,10 +12904,10 @@
         <v>1439900</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>3760400</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>2.6116</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>3760400</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>1053</v>
@@ -12907,10 +12926,10 @@
         <v>1514000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>6364800</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>4.204</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>6364800</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>168</v>
@@ -12929,10 +12948,10 @@
         <v>1531200</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>5862500</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>3.8287</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>5862500</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>127</v>
@@ -12951,10 +12970,10 @@
         <v>1552387</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>5450240</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>3.5109</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>5450240</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>16</v>
@@ -12973,10 +12992,10 @@
         <v>1587250</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>5632200</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>3.5484</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>5632200</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>19</v>
@@ -12995,10 +13014,10 @@
         <v>1645330</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>5119100</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>3.1113</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>5119100</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>11</v>
@@ -13017,10 +13036,10 @@
         <v>1658000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>6028000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>3.6357</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>6028000</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>7</v>
@@ -13039,10 +13058,10 @@
         <v>1657000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>5402503</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>3.2604</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>5402503</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>1</v>
@@ -13061,10 +13080,10 @@
         <v>1657400</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>6721400</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>4.0554</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>6721400</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -13083,10 +13102,10 @@
         <v>1632026</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>7638300</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>4.6803</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>7638300</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>21</v>
@@ -13105,10 +13124,10 @@
         <v>1639622</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>4688000</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>2.8592</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>4688000</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -13127,10 +13146,10 @@
         <v>1636900</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>3575000</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>2.184</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>3575000</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>3</v>
@@ -13149,10 +13168,10 @@
         <v>1622000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>4174900</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>2.5739</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>4174900</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>380</v>
@@ -13171,10 +13190,10 @@
         <v>1610600</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>5202100</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>3.2299</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>5202100</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>13</v>
@@ -13193,10 +13212,10 @@
         <v>1567000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>5859600</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>3.7394</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>5859600</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>34</v>
@@ -13215,10 +13234,10 @@
         <v>1574200</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>6508500</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>4.1345</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>6508500</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>178</v>
@@ -13237,10 +13256,10 @@
         <v>1540800</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>4565800</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>2.9633</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>4565800</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>31</v>
@@ -13259,10 +13278,10 @@
         <v>1476200</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>4017600</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>2.7216</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>4017600</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>3</v>
@@ -13281,10 +13300,10 @@
         <v>1528500</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>4139700</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>2.7083</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>4139700</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>69</v>
@@ -13303,10 +13322,10 @@
         <v>1575000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>3985600</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>2.5305</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>3985600</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>82</v>
@@ -13325,10 +13344,10 @@
         <v>1585800</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>3841000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>2.4221</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>3841000</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>3</v>
@@ -13347,10 +13366,10 @@
         <v>1576400</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>3730900</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>2.3667</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>3730900</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -13368,10 +13387,10 @@
         <v>1537100</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>4958300</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>3.2257</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>4958300</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>12</v>
@@ -13389,10 +13408,10 @@
         <v>1688000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>4376000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>2.5924</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>4376000</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -13410,10 +13429,10 @@
         <v>1678000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>5513000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>3.2855</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>5513000</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -13431,10 +13450,10 @@
         <v>1660000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>4108000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>2.4747</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>4108000</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -13452,10 +13471,10 @@
         <v>1640000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>3870000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>2.3598</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>3870000</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -13473,10 +13492,10 @@
         <v>1742000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>3298000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>1.8932</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>3298000</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
